--- a/data_process/data.xlsx
+++ b/data_process/data.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chua's_curcuit\data_process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91B320-77FA-40CE-825A-3D811DC0A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Состояние системы" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Амплидуты аттрактора Рёсслера" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Характерный размер для одного R" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Постоянные Фейгельбаума" sheetId="4" r:id="rId7"/>
+    <sheet name="Состояние системы" sheetId="1" r:id="rId1"/>
+    <sheet name="Амплидуты аттрактора Рёсслера" sheetId="2" r:id="rId2"/>
+    <sheet name="Характерный размер для одного R" sheetId="3" r:id="rId3"/>
+    <sheet name="Постоянные Фейгельбаума" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>Переход БПЦ к ДПА</t>
   </si>
@@ -49,9 +61,6 @@
     <t>БПЦ - большой предельный цикл</t>
   </si>
   <si>
-    <t>Сверхбольшие R</t>
-  </si>
-  <si>
     <t>ДПА - двухпетлевой аттрактор</t>
   </si>
   <si>
@@ -82,41 +91,69 @@
     <t>scalex</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>R=3,15</t>
-  </si>
-  <si>
     <t>RL 2 петли</t>
   </si>
   <si>
     <t>RL 3 петли</t>
   </si>
+  <si>
+    <t>Ux_norm</t>
+  </si>
+  <si>
+    <t>Uy_norm</t>
+  </si>
+  <si>
+    <t>h_norm</t>
+  </si>
+  <si>
+    <t>R_true</t>
+  </si>
+  <si>
+    <t>RL_true</t>
+  </si>
+  <si>
+    <t>RL_max</t>
+  </si>
+  <si>
+    <t>R_max</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,57 +161,4118 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>БПЦ к ДПА</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$A$16:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$B$16:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ДПА к АР</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$D$16:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$E$16:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ар к ДПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$G$16:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$H$16:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ДПЦ к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$J$16:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$K$16:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>МПЦ к точке</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$M$16:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$N$16:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>точка к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$P$16:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$Q$16:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>МПЦ к БПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$S$16:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$T$16:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.74000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>БПЦ к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$V$16:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49000000000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$W$16:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11999999999999922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>БПЦ к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$Y$16:$Y$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62000000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$Z$16:$Z$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-69F9-4EDB-B36F-E32197596133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1459203872"/>
+        <c:axId val="1459204352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1459203872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459204352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1459204352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459203872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R-RL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Амплидуты аттрактора Рёсслера'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL_true</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Амплидуты аттрактора Рёсслера'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.2800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Амплидуты аттрактора Рёсслера'!$L$2:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A71-4D22-AC89-306D83EB0274}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1459206272"/>
+        <c:axId val="1459223072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1459206272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.1000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459223072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1459223072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="7.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459206272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Характерный размер для одного R'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diameter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Характерный размер для одного R'!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Характерный размер для одного R'!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.4985711369071804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0232432915661951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6401219466856727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8681541692269406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5495097567963922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3354160160315836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0311288741492746</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.854960132182441</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.771151175649729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.04987562112089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0099937578003146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-423A-4321-A0F0-3D67F1438290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1459224032"/>
+        <c:axId val="1459195712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1459224032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459195712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1459195712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459224032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F35A4D-A4A2-4650-362F-6EA1A36DC887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452718</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB3E844-DE6D-8D96-E6F5-4C06B7FE52DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C55CD9-2F10-9993-7559-27421E717223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3">
+            <v>3.4</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>3.43</v>
+          </cell>
+          <cell r="E3">
+            <v>2.0699999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>3.18</v>
+          </cell>
+          <cell r="H3">
+            <v>2.48</v>
+          </cell>
+          <cell r="J3">
+            <v>3.06</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="M3">
+            <v>3</v>
+          </cell>
+          <cell r="N3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>3.24</v>
+          </cell>
+          <cell r="Q3">
+            <v>8.86</v>
+          </cell>
+          <cell r="S3">
+            <v>2.95</v>
+          </cell>
+          <cell r="T3">
+            <v>9.26</v>
+          </cell>
+          <cell r="V3">
+            <v>3</v>
+          </cell>
+          <cell r="W3">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="Y3">
+            <v>3.65</v>
+          </cell>
+          <cell r="Z3">
+            <v>5.4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3.48</v>
+          </cell>
+          <cell r="B4">
+            <v>1.45</v>
+          </cell>
+          <cell r="D4">
+            <v>3.46</v>
+          </cell>
+          <cell r="E4">
+            <v>2.2400000000000002</v>
+          </cell>
+          <cell r="G4">
+            <v>3.07</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>3.12</v>
+          </cell>
+          <cell r="K4">
+            <v>1.02</v>
+          </cell>
+          <cell r="M4">
+            <v>3.09</v>
+          </cell>
+          <cell r="N4">
+            <v>2.89</v>
+          </cell>
+          <cell r="P4">
+            <v>3.53</v>
+          </cell>
+          <cell r="Q4">
+            <v>8.7100000000000009</v>
+          </cell>
+          <cell r="S4">
+            <v>3.06</v>
+          </cell>
+          <cell r="T4">
+            <v>9.33</v>
+          </cell>
+          <cell r="V4">
+            <v>3.1</v>
+          </cell>
+          <cell r="W4">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="Y4">
+            <v>3.75</v>
+          </cell>
+          <cell r="Z4">
+            <v>6.83</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3.43</v>
+          </cell>
+          <cell r="B5">
+            <v>0.85</v>
+          </cell>
+          <cell r="D5">
+            <v>3.39</v>
+          </cell>
+          <cell r="E5">
+            <v>2.34</v>
+          </cell>
+          <cell r="G5">
+            <v>3.12</v>
+          </cell>
+          <cell r="H5">
+            <v>0.73</v>
+          </cell>
+          <cell r="J5">
+            <v>3.15</v>
+          </cell>
+          <cell r="K5">
+            <v>1.45</v>
+          </cell>
+          <cell r="M5">
+            <v>3.17</v>
+          </cell>
+          <cell r="N5">
+            <v>3.26</v>
+          </cell>
+          <cell r="P5">
+            <v>3.35</v>
+          </cell>
+          <cell r="Q5">
+            <v>8.66</v>
+          </cell>
+          <cell r="S5">
+            <v>3.18</v>
+          </cell>
+          <cell r="T5">
+            <v>9.34</v>
+          </cell>
+          <cell r="V5">
+            <v>3.3</v>
+          </cell>
+          <cell r="W5">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="Y5">
+            <v>3.86</v>
+          </cell>
+          <cell r="Z5">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>3.46</v>
+          </cell>
+          <cell r="B6">
+            <v>1.04</v>
+          </cell>
+          <cell r="D6">
+            <v>3.32</v>
+          </cell>
+          <cell r="E6">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="G6">
+            <v>3.23</v>
+          </cell>
+          <cell r="H6">
+            <v>2.48</v>
+          </cell>
+          <cell r="J6">
+            <v>3.2</v>
+          </cell>
+          <cell r="K6">
+            <v>2.25</v>
+          </cell>
+          <cell r="M6">
+            <v>3.26</v>
+          </cell>
+          <cell r="N6">
+            <v>4.45</v>
+          </cell>
+          <cell r="P6">
+            <v>3.17</v>
+          </cell>
+          <cell r="Q6">
+            <v>8.9600000000000009</v>
+          </cell>
+          <cell r="S6">
+            <v>3.26</v>
+          </cell>
+          <cell r="T6">
+            <v>9.36</v>
+          </cell>
+          <cell r="V6">
+            <v>3.51</v>
+          </cell>
+          <cell r="W6">
+            <v>9.8699999999999992</v>
+          </cell>
+          <cell r="Y6">
+            <v>3.96</v>
+          </cell>
+          <cell r="Z6">
+            <v>7.91</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>3.25</v>
+          </cell>
+          <cell r="E7">
+            <v>1.85</v>
+          </cell>
+          <cell r="G7">
+            <v>3.27</v>
+          </cell>
+          <cell r="H7">
+            <v>2.89</v>
+          </cell>
+          <cell r="J7">
+            <v>3.25</v>
+          </cell>
+          <cell r="K7">
+            <v>2.4500000000000002</v>
+          </cell>
+          <cell r="M7">
+            <v>3.47</v>
+          </cell>
+          <cell r="N7">
+            <v>6.14</v>
+          </cell>
+          <cell r="P7">
+            <v>3.04</v>
+          </cell>
+          <cell r="Q7">
+            <v>9.0299999999999994</v>
+          </cell>
+          <cell r="S7">
+            <v>3.51</v>
+          </cell>
+          <cell r="T7">
+            <v>9.39</v>
+          </cell>
+          <cell r="V7">
+            <v>3.71</v>
+          </cell>
+          <cell r="W7">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="Y7">
+            <v>4.08</v>
+          </cell>
+          <cell r="Z7">
+            <v>8.18</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>3.22</v>
+          </cell>
+          <cell r="E8">
+            <v>1.68</v>
+          </cell>
+          <cell r="G8">
+            <v>3.34</v>
+          </cell>
+          <cell r="H8">
+            <v>3.36</v>
+          </cell>
+          <cell r="J8">
+            <v>3.3</v>
+          </cell>
+          <cell r="K8">
+            <v>3.12</v>
+          </cell>
+          <cell r="M8">
+            <v>3.37</v>
+          </cell>
+          <cell r="N8">
+            <v>5.81</v>
+          </cell>
+          <cell r="P8">
+            <v>2.95</v>
+          </cell>
+          <cell r="Q8">
+            <v>9.1</v>
+          </cell>
+          <cell r="S8">
+            <v>3.68</v>
+          </cell>
+          <cell r="T8">
+            <v>9.44</v>
+          </cell>
+          <cell r="V8">
+            <v>3.9</v>
+          </cell>
+          <cell r="W8">
+            <v>9.8800000000000008</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>3.15</v>
+          </cell>
+          <cell r="E9">
+            <v>0.91</v>
+          </cell>
+          <cell r="J9">
+            <v>3.35</v>
+          </cell>
+          <cell r="K9">
+            <v>3.64</v>
+          </cell>
+          <cell r="M9">
+            <v>3.6</v>
+          </cell>
+          <cell r="N9">
+            <v>6.97</v>
+          </cell>
+          <cell r="S9">
+            <v>3.9</v>
+          </cell>
+          <cell r="T9">
+            <v>9.44</v>
+          </cell>
+          <cell r="V9">
+            <v>4</v>
+          </cell>
+          <cell r="W9">
+            <v>9.8800000000000008</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>3.13</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>3.49</v>
+          </cell>
+          <cell r="K10">
+            <v>3.12</v>
+          </cell>
+          <cell r="S10">
+            <v>4.03</v>
+          </cell>
+          <cell r="T10">
+            <v>9.44</v>
+          </cell>
+          <cell r="V10">
+            <v>4.21</v>
+          </cell>
+          <cell r="W10">
+            <v>9.8800000000000008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>3.19</v>
+          </cell>
+          <cell r="E11">
+            <v>1.65</v>
+          </cell>
+          <cell r="J11">
+            <v>3.55</v>
+          </cell>
+          <cell r="K11">
+            <v>3.42</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>3.59</v>
+          </cell>
+          <cell r="K12">
+            <v>4.1900000000000004</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>3.4</v>
+          </cell>
+          <cell r="K13">
+            <v>2.84</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -364,20 +4462,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +4505,11 @@
       <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -452,19 +4558,25 @@
       <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>3.43</v>
       </c>
       <c r="E3" s="1">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>3.18</v>
@@ -476,13 +4588,13 @@
         <v>3.06</v>
       </c>
       <c r="K3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>3.24</v>
@@ -497,13 +4609,19 @@
         <v>9.26</v>
       </c>
       <c r="V3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>5.4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.48</v>
       </c>
@@ -514,13 +4632,13 @@
         <v>3.46</v>
       </c>
       <c r="E4" s="1">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G4" s="1">
         <v>3.07</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>3.12</v>
@@ -538,7 +4656,7 @@
         <v>3.53</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.71</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="S4" s="1">
         <v>3.06</v>
@@ -550,10 +4668,16 @@
         <v>3.1</v>
       </c>
       <c r="W4" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>6.83</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.43</v>
       </c>
@@ -600,10 +4724,16 @@
         <v>3.3</v>
       </c>
       <c r="W5" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.46</v>
       </c>
@@ -614,7 +4744,7 @@
         <v>3.32</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G6" s="1">
         <v>3.23</v>
@@ -638,7 +4768,7 @@
         <v>3.17</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="S6" s="1">
         <v>3.26</v>
@@ -650,10 +4780,16 @@
         <v>3.51</v>
       </c>
       <c r="W6" s="1">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>7.91</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>3.25</v>
       </c>
@@ -670,7 +4806,7 @@
         <v>3.25</v>
       </c>
       <c r="K7" s="1">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="M7" s="1">
         <v>3.47</v>
@@ -682,7 +4818,7 @@
         <v>3.04</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="S7" s="1">
         <v>3.51</v>
@@ -694,10 +4830,16 @@
         <v>3.71</v>
       </c>
       <c r="W7" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>8.18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>3.22</v>
       </c>
@@ -738,10 +4880,10 @@
         <v>3.9</v>
       </c>
       <c r="W8" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>3.15</v>
       </c>
@@ -767,18 +4909,18 @@
         <v>9.44</v>
       </c>
       <c r="V9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>3.13</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>3.49</v>
@@ -796,10 +4938,10 @@
         <v>4.21</v>
       </c>
       <c r="W10" s="1">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>3.19</v>
       </c>
@@ -813,15 +4955,15 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J12" s="1">
         <v>3.59</v>
       </c>
       <c r="K12" s="1">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J13" s="1">
         <v>3.4</v>
       </c>
@@ -829,123 +4971,703 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>$B$34-A3</f>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="B16" s="1">
+        <f>$B$33-B3</f>
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1">
+        <f>$B$34-D3</f>
+        <v>1.27</v>
+      </c>
+      <c r="E16" s="1">
+        <f>$B$33-E3</f>
+        <v>7.93</v>
+      </c>
+      <c r="G16" s="1">
+        <f>$B$34-G3</f>
+        <v>1.52</v>
+      </c>
+      <c r="H16" s="1">
+        <f>$B$33-H3</f>
+        <v>7.52</v>
+      </c>
+      <c r="J16" s="1">
+        <f>$B$34-J3</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <f>$B$33-K3</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <f>$B$34-M3</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="N16" s="1">
+        <f>$B$33-N3</f>
+        <v>10</v>
+      </c>
+      <c r="P16" s="1">
+        <f>$B$34-P3</f>
+        <v>1.46</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>$B$33-Q3</f>
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="S16" s="1">
+        <f>$B$34-S3</f>
+        <v>1.75</v>
+      </c>
+      <c r="T16" s="1">
+        <f>$B$33-T3</f>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="V16" s="1">
+        <f>$B$34-V3</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="W16" s="1">
+        <f>$B$33-W3</f>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>$B$34-Y3</f>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>$B$33-Z3</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" ref="A17:A19" si="0">$B$34-A4</f>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:B19" si="1">$B$33-B4</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:D24" si="2">$B$34-D4</f>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:E24" si="3">$B$33-E4</f>
+        <v>7.76</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G21" si="4">$B$34-G4</f>
+        <v>1.6300000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:H21" si="5">$B$33-H4</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ref="J17:J30" si="6">$B$34-J4</f>
+        <v>1.58</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17:K26" si="7">$B$33-K4</f>
+        <v>8.98</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ref="M17:M22" si="8">$B$34-M4</f>
+        <v>1.6100000000000003</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ref="N17:N22" si="9">$B$33-N4</f>
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" ref="P17:P21" si="10">$B$34-P4</f>
+        <v>1.1700000000000004</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" ref="Q17:Q21" si="11">$B$33-Q4</f>
+        <v>1.2899999999999991</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" ref="S17:S23" si="12">$B$34-S4</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" ref="T17:T23" si="13">$B$33-T4</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" ref="V17:V23" si="14">$B$34-V4</f>
+        <v>1.6</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" ref="W17:W23" si="15">$B$33-W4</f>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" ref="Y17:Y20" si="16">$B$34-Y4</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" ref="Z17:Z20" si="17">$B$33-Z4</f>
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.27</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>9.15</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.31</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>7.66</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>1.58</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="5"/>
+        <v>9.27</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="7"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="9"/>
+        <v>6.74</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="10"/>
+        <v>1.35</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="11"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="12"/>
+        <v>1.52</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="16"/>
+        <v>0.8400000000000003</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3800000000000003</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>7.52</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="7"/>
+        <v>7.75</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="9"/>
+        <v>5.55</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="10"/>
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0399999999999991</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="14"/>
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="15"/>
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="17"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>8.15</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="7"/>
+        <v>7.55</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="8"/>
+        <v>1.23</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8600000000000003</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="11"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="12"/>
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="13"/>
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="14"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="16"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="17"/>
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.48</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>8.32</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="7"/>
+        <v>6.88</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="8"/>
+        <v>1.33</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="10"/>
+        <v>1.75</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="12"/>
+        <v>1.02</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="14"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>9.09</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="7"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="12"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="14"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.21</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="7"/>
+        <v>6.88</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="14"/>
+        <v>0.49000000000000021</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>8.35</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="7"/>
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="7"/>
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="7"/>
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J27" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J28" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J29" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
-        <v>3.65</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5.4</v>
-      </c>
+      <c r="J30" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="E18" s="1">
-        <v>6.83</v>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" s="1">
-        <v>3.86</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="1">
-        <v>3.96</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8.18</v>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>3.42</v>
       </c>
       <c r="B2" s="3">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C2" s="3">
         <v>6.4</v>
@@ -954,16 +5676,36 @@
         <v>1.5</v>
       </c>
       <c r="E2" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <f>G2*C2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="I2">
+        <f>D2*F2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f>F2*E2</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f>'Состояние системы'!$B$34 - A2</f>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="L2">
+        <f>'Состояние системы'!$B$33-B2</f>
+        <v>7.82</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3.34</v>
       </c>
@@ -977,16 +5719,36 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0.2</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="0">G3*C3</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I16" si="1">D3*F3</f>
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="2">F3*E3</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>'Состояние системы'!$B$34 - A3</f>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="L3">
+        <f>'Состояние системы'!$B$33-B3</f>
+        <v>7.8100000000000005</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3.23</v>
       </c>
@@ -997,50 +5759,90 @@
         <v>7.4</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>6.5</v>
       </c>
       <c r="F4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>0.2</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="K4">
+        <f>'Состояние системы'!$B$34 - A4</f>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="L4">
+        <f>'Состояние системы'!$B$33-B4</f>
+        <v>8.32</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3.19</v>
       </c>
       <c r="B5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>7.8</v>
       </c>
       <c r="D5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>5.5</v>
       </c>
       <c r="F5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>0.2</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="K5">
+        <f>'Состояние системы'!$B$34 - A5</f>
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="L5">
+        <f>'Состояние системы'!$B$33-B5</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3.13</v>
       </c>
       <c r="B6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D6" s="3">
         <v>2.4</v>
@@ -1049,13 +5851,33 @@
         <v>6.5</v>
       </c>
       <c r="F6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0.2</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.7600000000000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="K6">
+        <f>'Состояние системы'!$B$34 - A6</f>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="L6">
+        <f>'Состояние системы'!$B$33-B6</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3.35</v>
       </c>
@@ -1063,22 +5885,42 @@
         <v>0.86</v>
       </c>
       <c r="C7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>1.4</v>
       </c>
       <c r="E7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>0.2</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f>'Состояние системы'!$B$34 - A7</f>
+        <v>1.35</v>
+      </c>
+      <c r="L7">
+        <f>'Состояние системы'!$B$33-B7</f>
+        <v>9.14</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3.5</v>
       </c>
@@ -1100,13 +5942,33 @@
       <c r="G8" s="3">
         <v>0.1</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="K8">
+        <f>'Состояние системы'!$B$34 - A8</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L8">
+        <f>'Состояние системы'!$B$33-B8</f>
+        <v>8.14</v>
+      </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3.33</v>
       </c>
       <c r="B9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>5.4</v>
@@ -1115,16 +5977,36 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>0.2</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f>'Состояние системы'!$B$34 - A9</f>
+        <v>1.37</v>
+      </c>
+      <c r="L9">
+        <f>'Состояние системы'!$B$33-B9</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3.15</v>
       </c>
@@ -1135,47 +6017,87 @@
         <v>7.8</v>
       </c>
       <c r="D10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
         <v>5.8</v>
       </c>
       <c r="F10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>0.2</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="K10">
+        <f>'Состояние системы'!$B$34 - A10</f>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="L10">
+        <f>'Состояние системы'!$B$33-B10</f>
+        <v>8.69</v>
+      </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3.15</v>
       </c>
       <c r="B11" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C11" s="3">
         <v>7.8</v>
       </c>
       <c r="D11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
         <v>5.8</v>
       </c>
       <c r="F11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <v>0.2</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="K11">
+        <f>'Состояние системы'!$B$34 - A11</f>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="L11">
+        <f>'Состояние системы'!$B$33-B11</f>
+        <v>9.44</v>
+      </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3.26</v>
       </c>
       <c r="B12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <v>6.5</v>
@@ -1187,13 +6109,33 @@
         <v>4.8</v>
       </c>
       <c r="F12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>0.2</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="K12">
+        <f>'Состояние системы'!$B$34 - A12</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="L12">
+        <f>'Состояние системы'!$B$33-B12</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3.26</v>
       </c>
@@ -1207,44 +6149,84 @@
         <v>1.8</v>
       </c>
       <c r="E13" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>0.2</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K13">
+        <f>'Состояние системы'!$B$34 - A13</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="L13">
+        <f>'Состояние системы'!$B$33-B13</f>
+        <v>9.16</v>
+      </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3.39</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3">
         <v>1.5</v>
       </c>
       <c r="E14" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <v>0.2</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f>'Состояние системы'!$B$34 - A14</f>
+        <v>1.31</v>
+      </c>
+      <c r="L14">
+        <f>'Состояние системы'!$B$33-B14</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3.39</v>
       </c>
       <c r="B15" s="3">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C15" s="3">
         <v>4.8</v>
@@ -1256,13 +6238,33 @@
         <v>3.8</v>
       </c>
       <c r="F15" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>0.2</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="K15">
+        <f>'Состояние системы'!$B$34 - A15</f>
+        <v>1.31</v>
+      </c>
+      <c r="L15">
+        <f>'Состояние системы'!$B$33-B15</f>
+        <v>7.93</v>
+      </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3.55</v>
       </c>
@@ -1270,13 +6272,13 @@
         <v>1.73</v>
       </c>
       <c r="C16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>0.8</v>
       </c>
       <c r="E16" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F16" s="3">
         <v>0.5</v>
@@ -1284,66 +6286,123 @@
       <c r="G16" s="3">
         <v>0.1</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K16">
+        <f>'Состояние системы'!$B$34 - A16</f>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="L16">
+        <f>'Состояние системы'!$B$33-B16</f>
+        <v>8.27</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>3.15</v>
+      </c>
       <c r="B2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0.2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3">
+        <f>C2*F2</f>
+        <v>1.8</v>
+      </c>
+      <c r="H2" s="3">
+        <f>D2*E2</f>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f>'Состояние системы'!$B$33 - B2</f>
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f>'Состояние системы'!$B$34-A2</f>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="K2">
+        <f>(G2*G2+H2*H2)^0.5</f>
+        <v>3.4985711369071804</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>1.2</v>
       </c>
@@ -1354,16 +6413,30 @@
         <v>2.5</v>
       </c>
       <c r="E3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>0.2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G17" si="0">C3*F3</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H17" si="1">D3*E3</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3">
+        <f>'Состояние системы'!$B$33 - B3</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="2">(G3*G3+H3*H3)^0.5</f>
+        <v>3.0232432915661951</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>2.1</v>
       </c>
@@ -1371,139 +6444,237 @@
         <v>6.5</v>
       </c>
       <c r="D4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0.2</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>'Состояние системы'!$B$33 - B4</f>
+        <v>7.9</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1.6401219466856727</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2.85</v>
       </c>
       <c r="C5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>0.5</v>
       </c>
       <c r="E5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <v>0.2</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <f>'Состояние системы'!$B$33 - B5</f>
+        <v>7.15</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>2.86</v>
       </c>
       <c r="C6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0.2</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>'Состояние системы'!$B$33 - B6</f>
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>8.92</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <v>0.2</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>'Состояние системы'!$B$33 - B7</f>
+        <v>1.08</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>8.93</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>0.2</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>'Состояние системы'!$B$33 - B8</f>
+        <v>1.0700000000000003</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="3">
-        <v>9.13</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="C9" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <v>0.5</v>
       </c>
       <c r="E9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
         <v>0.2</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <f>'Состояние системы'!$B$33 - B9</f>
+        <v>0.86999999999999922</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1.8681541692269406</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>9.17</v>
       </c>
       <c r="C10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0.5</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <f>'Состояние системы'!$B$33 - B10</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2.5495097567963922</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="3">
         <v>9.26</v>
       </c>
@@ -1514,36 +6685,64 @@
         <v>0.75</v>
       </c>
       <c r="E11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>0.5</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I11">
+        <f>'Состояние системы'!$B$33 - B11</f>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>3.3354160160315836</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C12" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0.5</v>
       </c>
       <c r="E12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>0.5</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f>'Состояние системы'!$B$33 - B12</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4.0311288741492746</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>9.32</v>
       </c>
@@ -1554,76 +6753,132 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f>'Состояние системы'!$B$33 - B13</f>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>12.854960132182441</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" s="3">
-        <v>9.63</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="C14" s="3">
         <v>5.8</v>
       </c>
       <c r="D14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>'Состояние системы'!$B$33 - B14</f>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>11.771151175649729</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" s="3">
-        <v>9.78</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="C15" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
         <v>0.5</v>
       </c>
       <c r="E15" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>'Состояние системы'!$B$33 - B15</f>
+        <v>0.22000000000000064</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>10.04987562112089</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>9.83</v>
       </c>
       <c r="C16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>0.2</v>
       </c>
       <c r="E16" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I16">
+        <f>'Состояние системы'!$B$33 - B16</f>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>8.0099937578003146</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="3">
         <v>9.86</v>
       </c>
@@ -1631,44 +6886,62 @@
         <v>2.4</v>
       </c>
       <c r="D17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>'Состояние системы'!$B$33 - B17</f>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.31</v>
       </c>
@@ -1679,7 +6952,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.38</v>
       </c>
@@ -1690,7 +6963,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.24</v>
       </c>
@@ -1702,6 +6975,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_process/data.xlsx
+++ b/data_process/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chua's_curcuit\data_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91B320-77FA-40CE-825A-3D811DC0A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7027B4-E8BE-47E5-A904-3D941B5F6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Состояние системы" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,12 @@
     <sheet name="Характерный размер для одного R" sheetId="3" r:id="rId3"/>
     <sheet name="Постоянные Фейгельбаума" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Переход БПЦ к ДПА</t>
   </si>
@@ -119,6 +116,51 @@
   </si>
   <si>
     <t>Diameter</t>
+  </si>
+  <si>
+    <t>Пересчитанные сопротивления</t>
+  </si>
+  <si>
+    <t>Для схемы</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Gb</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>m0/m1</t>
+  </si>
+  <si>
+    <t>L_coef</t>
+  </si>
+  <si>
+    <t>В лог масштабе с пересчитныыми значениями</t>
+  </si>
+  <si>
+    <t>В исходных переменных R-RL</t>
   </si>
 </sst>
 </file>
@@ -1295,6 +1337,1094 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>БПЦ к ДПА</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$A$29:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.7522123893805315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3982300884955761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6194690265486722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4867256637168147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.5770000000000017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7447017543859653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8170163934426222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6630357142857148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ДПА к АР</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$D$29:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.6194690265486722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4867256637168147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7964601769911503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1061946902654878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4159292035398243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5486725663716809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8584070796460184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9469026548672579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6814159292035411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$E$29:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.7119419924337951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5387628865979393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3931201044386432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0570769230769272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5131901840490816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6878846153846148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7219471947194744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.134170000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0111736526946142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>АР к ДПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$G$29:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.7256637168141591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2123893805309747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9911504424778759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.504424778761063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3274336283185848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0176991150442491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$H$29:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.13872340425532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7677700000000023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8868608414239478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4826728723404301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4910970464135058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1922891566265061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ДПЦ к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$J$29:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.2566371681415935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9911504424778759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8584070796460184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6371681415929205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4159292035398243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1946902654867273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9734513274336285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3539823008849554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0884955752212413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9115044247787623</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7522123893805315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$K$29:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.8756799999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1738530066815152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2728070175438617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5806451612903203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1897350993377493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4011627906976791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.456367924528303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0225726744186039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6325987841945331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9981583476764229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7891061452513997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>МПЦ к точке</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$M$29:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5221238938053103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1238938053097351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7699115044247797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3716814159292054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4424778761061949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.884955752212389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8672566371681416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$N$29:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.536999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.030843881856546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.461379821958458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.329513513513518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.934119170984452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.931670644391406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.178217821782178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>точка к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$P$29:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.4601769911504423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1769911504424799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9734513274336285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7699115044247797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3451327433628331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7433628318584073</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$Q$29:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>61.704210526315734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.018372093023302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.882462686567173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.278557692307771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.747216494845304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.29166666666661</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>МПЦ к БПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$S$29:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7433628318584073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2566371681415935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7256637168141591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3716814159292054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2654867256637186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5132743362831862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5398230088495586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9646017699115039</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$T$29:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>136.57094594594588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.47283582089554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.51999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.91999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.608688524590278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.309285714285657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.453035714285683</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>БПЦ к МПЦ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$Y$29:$Y$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6460176991150455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2035398230088505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7168141592920367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2743362831858418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7433628318584073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$Z$29:$Z$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.909239130434786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3951104100946381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7616000000000058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6463157894736895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9698901098901098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>БПЦ к МПЦ2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$V$29:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.5221238938053103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0796460176991154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1946902654867273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2654867256637186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3805309734513287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5398230088495586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0973451327433636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1681415929203549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Состояние системы'!$W$29:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>794.75000000000523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>704.00000000000477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>539.00000000000387</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.47153846153651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269.52750000000185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.00000000000125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.75000000000097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.027500000000487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-077A-41A4-8F5C-9D10FFF15E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1309347504"/>
+        <c:axId val="1309350384"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1309347504"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309350384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1309350384"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309347504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1696,7 +2826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2180,6 +3310,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3728,20 +4898,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>78316</xdr:rowOff>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3761,6 +5447,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>670561</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A301180-66C9-4C79-89C8-EC375DC4846B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3849,426 +5573,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>3.4</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>3.43</v>
-          </cell>
-          <cell r="E3">
-            <v>2.0699999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>3.18</v>
-          </cell>
-          <cell r="H3">
-            <v>2.48</v>
-          </cell>
-          <cell r="J3">
-            <v>3.06</v>
-          </cell>
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-          <cell r="M3">
-            <v>3</v>
-          </cell>
-          <cell r="N3">
-            <v>0</v>
-          </cell>
-          <cell r="P3">
-            <v>3.24</v>
-          </cell>
-          <cell r="Q3">
-            <v>8.86</v>
-          </cell>
-          <cell r="S3">
-            <v>2.95</v>
-          </cell>
-          <cell r="T3">
-            <v>9.26</v>
-          </cell>
-          <cell r="V3">
-            <v>3</v>
-          </cell>
-          <cell r="W3">
-            <v>9.8800000000000008</v>
-          </cell>
-          <cell r="Y3">
-            <v>3.65</v>
-          </cell>
-          <cell r="Z3">
-            <v>5.4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3.48</v>
-          </cell>
-          <cell r="B4">
-            <v>1.45</v>
-          </cell>
-          <cell r="D4">
-            <v>3.46</v>
-          </cell>
-          <cell r="E4">
-            <v>2.2400000000000002</v>
-          </cell>
-          <cell r="G4">
-            <v>3.07</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>3.12</v>
-          </cell>
-          <cell r="K4">
-            <v>1.02</v>
-          </cell>
-          <cell r="M4">
-            <v>3.09</v>
-          </cell>
-          <cell r="N4">
-            <v>2.89</v>
-          </cell>
-          <cell r="P4">
-            <v>3.53</v>
-          </cell>
-          <cell r="Q4">
-            <v>8.7100000000000009</v>
-          </cell>
-          <cell r="S4">
-            <v>3.06</v>
-          </cell>
-          <cell r="T4">
-            <v>9.33</v>
-          </cell>
-          <cell r="V4">
-            <v>3.1</v>
-          </cell>
-          <cell r="W4">
-            <v>9.8800000000000008</v>
-          </cell>
-          <cell r="Y4">
-            <v>3.75</v>
-          </cell>
-          <cell r="Z4">
-            <v>6.83</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3.43</v>
-          </cell>
-          <cell r="B5">
-            <v>0.85</v>
-          </cell>
-          <cell r="D5">
-            <v>3.39</v>
-          </cell>
-          <cell r="E5">
-            <v>2.34</v>
-          </cell>
-          <cell r="G5">
-            <v>3.12</v>
-          </cell>
-          <cell r="H5">
-            <v>0.73</v>
-          </cell>
-          <cell r="J5">
-            <v>3.15</v>
-          </cell>
-          <cell r="K5">
-            <v>1.45</v>
-          </cell>
-          <cell r="M5">
-            <v>3.17</v>
-          </cell>
-          <cell r="N5">
-            <v>3.26</v>
-          </cell>
-          <cell r="P5">
-            <v>3.35</v>
-          </cell>
-          <cell r="Q5">
-            <v>8.66</v>
-          </cell>
-          <cell r="S5">
-            <v>3.18</v>
-          </cell>
-          <cell r="T5">
-            <v>9.34</v>
-          </cell>
-          <cell r="V5">
-            <v>3.3</v>
-          </cell>
-          <cell r="W5">
-            <v>9.8800000000000008</v>
-          </cell>
-          <cell r="Y5">
-            <v>3.86</v>
-          </cell>
-          <cell r="Z5">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>3.46</v>
-          </cell>
-          <cell r="B6">
-            <v>1.04</v>
-          </cell>
-          <cell r="D6">
-            <v>3.32</v>
-          </cell>
-          <cell r="E6">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="G6">
-            <v>3.23</v>
-          </cell>
-          <cell r="H6">
-            <v>2.48</v>
-          </cell>
-          <cell r="J6">
-            <v>3.2</v>
-          </cell>
-          <cell r="K6">
-            <v>2.25</v>
-          </cell>
-          <cell r="M6">
-            <v>3.26</v>
-          </cell>
-          <cell r="N6">
-            <v>4.45</v>
-          </cell>
-          <cell r="P6">
-            <v>3.17</v>
-          </cell>
-          <cell r="Q6">
-            <v>8.9600000000000009</v>
-          </cell>
-          <cell r="S6">
-            <v>3.26</v>
-          </cell>
-          <cell r="T6">
-            <v>9.36</v>
-          </cell>
-          <cell r="V6">
-            <v>3.51</v>
-          </cell>
-          <cell r="W6">
-            <v>9.8699999999999992</v>
-          </cell>
-          <cell r="Y6">
-            <v>3.96</v>
-          </cell>
-          <cell r="Z6">
-            <v>7.91</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>3.25</v>
-          </cell>
-          <cell r="E7">
-            <v>1.85</v>
-          </cell>
-          <cell r="G7">
-            <v>3.27</v>
-          </cell>
-          <cell r="H7">
-            <v>2.89</v>
-          </cell>
-          <cell r="J7">
-            <v>3.25</v>
-          </cell>
-          <cell r="K7">
-            <v>2.4500000000000002</v>
-          </cell>
-          <cell r="M7">
-            <v>3.47</v>
-          </cell>
-          <cell r="N7">
-            <v>6.14</v>
-          </cell>
-          <cell r="P7">
-            <v>3.04</v>
-          </cell>
-          <cell r="Q7">
-            <v>9.0299999999999994</v>
-          </cell>
-          <cell r="S7">
-            <v>3.51</v>
-          </cell>
-          <cell r="T7">
-            <v>9.39</v>
-          </cell>
-          <cell r="V7">
-            <v>3.71</v>
-          </cell>
-          <cell r="W7">
-            <v>9.8800000000000008</v>
-          </cell>
-          <cell r="Y7">
-            <v>4.08</v>
-          </cell>
-          <cell r="Z7">
-            <v>8.18</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>3.22</v>
-          </cell>
-          <cell r="E8">
-            <v>1.68</v>
-          </cell>
-          <cell r="G8">
-            <v>3.34</v>
-          </cell>
-          <cell r="H8">
-            <v>3.36</v>
-          </cell>
-          <cell r="J8">
-            <v>3.3</v>
-          </cell>
-          <cell r="K8">
-            <v>3.12</v>
-          </cell>
-          <cell r="M8">
-            <v>3.37</v>
-          </cell>
-          <cell r="N8">
-            <v>5.81</v>
-          </cell>
-          <cell r="P8">
-            <v>2.95</v>
-          </cell>
-          <cell r="Q8">
-            <v>9.1</v>
-          </cell>
-          <cell r="S8">
-            <v>3.68</v>
-          </cell>
-          <cell r="T8">
-            <v>9.44</v>
-          </cell>
-          <cell r="V8">
-            <v>3.9</v>
-          </cell>
-          <cell r="W8">
-            <v>9.8800000000000008</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>3.15</v>
-          </cell>
-          <cell r="E9">
-            <v>0.91</v>
-          </cell>
-          <cell r="J9">
-            <v>3.35</v>
-          </cell>
-          <cell r="K9">
-            <v>3.64</v>
-          </cell>
-          <cell r="M9">
-            <v>3.6</v>
-          </cell>
-          <cell r="N9">
-            <v>6.97</v>
-          </cell>
-          <cell r="S9">
-            <v>3.9</v>
-          </cell>
-          <cell r="T9">
-            <v>9.44</v>
-          </cell>
-          <cell r="V9">
-            <v>4</v>
-          </cell>
-          <cell r="W9">
-            <v>9.8800000000000008</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>3.13</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="J10">
-            <v>3.49</v>
-          </cell>
-          <cell r="K10">
-            <v>3.12</v>
-          </cell>
-          <cell r="S10">
-            <v>4.03</v>
-          </cell>
-          <cell r="T10">
-            <v>9.44</v>
-          </cell>
-          <cell r="V10">
-            <v>4.21</v>
-          </cell>
-          <cell r="W10">
-            <v>9.8800000000000008</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>3.19</v>
-          </cell>
-          <cell r="E11">
-            <v>1.65</v>
-          </cell>
-          <cell r="J11">
-            <v>3.55</v>
-          </cell>
-          <cell r="K11">
-            <v>3.42</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>3.59</v>
-          </cell>
-          <cell r="K12">
-            <v>4.1900000000000004</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>3.4</v>
-          </cell>
-          <cell r="K13">
-            <v>2.84</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4472,10 +5776,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="86" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4883,7 +6187,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>3.15</v>
       </c>
@@ -4915,7 +6219,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>3.13</v>
       </c>
@@ -4941,7 +6245,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>3.19</v>
       </c>
@@ -4955,7 +6259,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J12" s="1">
         <v>3.59</v>
       </c>
@@ -4963,7 +6267,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="J13" s="1">
         <v>3.4</v>
       </c>
@@ -4971,7 +6275,11 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
@@ -5030,579 +6338,1263 @@
     </row>
     <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>$B$34-A3</f>
+        <f>$B$47-A3</f>
         <v>1.3000000000000003</v>
       </c>
       <c r="B16" s="1">
-        <f>$B$33-B3</f>
+        <f>$B$46-B3</f>
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <f>$B$34-D3</f>
+        <f>$B$47-D3</f>
         <v>1.27</v>
       </c>
       <c r="E16" s="1">
-        <f>$B$33-E3</f>
+        <f>$B$46-E3</f>
         <v>7.93</v>
       </c>
       <c r="G16" s="1">
-        <f>$B$34-G3</f>
+        <f>$B$47-G3</f>
         <v>1.52</v>
       </c>
       <c r="H16" s="1">
-        <f>$B$33-H3</f>
+        <f>$B$46-H3</f>
         <v>7.52</v>
       </c>
       <c r="J16" s="1">
-        <f>$B$34-J3</f>
+        <f>$B$47-J3</f>
         <v>1.6400000000000001</v>
       </c>
       <c r="K16" s="1">
-        <f>$B$33-K3</f>
+        <f>$B$46-K3</f>
         <v>10</v>
       </c>
       <c r="M16" s="1">
-        <f>$B$34-M3</f>
+        <f>$B$47-M3</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="N16" s="1">
-        <f>$B$33-N3</f>
+        <f>$B$46-N3</f>
         <v>10</v>
       </c>
       <c r="P16" s="1">
-        <f>$B$34-P3</f>
+        <f>$B$47-P3</f>
         <v>1.46</v>
       </c>
       <c r="Q16" s="1">
-        <f>$B$33-Q3</f>
+        <f>$B$46-Q3</f>
         <v>1.1400000000000006</v>
       </c>
       <c r="S16" s="1">
-        <f>$B$34-S3</f>
+        <f>$B$47-S3</f>
         <v>1.75</v>
       </c>
       <c r="T16" s="1">
-        <f>$B$33-T3</f>
+        <f>$B$46-T3</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="V16" s="1">
-        <f>$B$34-V3</f>
+        <f>$B$47-V3</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="W16" s="1">
-        <f>$B$33-W3</f>
+        <f>$B$46-W3</f>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y16" s="1">
-        <f>$B$34-Y3</f>
+        <f>$B$47-Y3</f>
         <v>1.0500000000000003</v>
       </c>
       <c r="Z16" s="1">
-        <f>$B$33-Z3</f>
+        <f>$B$46-Z3</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:A19" si="0">$B$34-A4</f>
+        <f>$B$47-A4</f>
         <v>1.2200000000000002</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ref="B17:B19" si="1">$B$33-B4</f>
+        <f>$B$46-B4</f>
         <v>8.5500000000000007</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D24" si="2">$B$34-D4</f>
+        <f>$B$47-D4</f>
         <v>1.2400000000000002</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E24" si="3">$B$33-E4</f>
+        <f>$B$46-E4</f>
         <v>7.76</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G21" si="4">$B$34-G4</f>
+        <f>$B$47-G4</f>
         <v>1.6300000000000003</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:H21" si="5">$B$33-H4</f>
+        <f>$B$46-H4</f>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ref="J17:J30" si="6">$B$34-J4</f>
+        <f>$B$47-J4</f>
         <v>1.58</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K26" si="7">$B$33-K4</f>
+        <f>$B$46-K4</f>
         <v>8.98</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" ref="M17:M22" si="8">$B$34-M4</f>
+        <f>$B$47-M4</f>
         <v>1.6100000000000003</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" ref="N17:N22" si="9">$B$33-N4</f>
+        <f>$B$46-N4</f>
         <v>7.1099999999999994</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:P21" si="10">$B$34-P4</f>
+        <f>$B$47-P4</f>
         <v>1.1700000000000004</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" ref="Q17:Q21" si="11">$B$33-Q4</f>
+        <f>$B$46-Q4</f>
         <v>1.2899999999999991</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" ref="S17:S23" si="12">$B$34-S4</f>
+        <f>$B$47-S4</f>
         <v>1.6400000000000001</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" ref="T17:T23" si="13">$B$33-T4</f>
+        <f>$B$46-T4</f>
         <v>0.66999999999999993</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ref="V17:V23" si="14">$B$34-V4</f>
+        <f>$B$47-V4</f>
         <v>1.6</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17:W23" si="15">$B$33-W4</f>
+        <f>$B$46-W4</f>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" ref="Y17:Y20" si="16">$B$34-Y4</f>
+        <f>$B$47-Y4</f>
         <v>0.95000000000000018</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" ref="Z17:Z20" si="17">$B$33-Z4</f>
+        <f>$B$46-Z4</f>
         <v>3.17</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f>$B$47-A5</f>
         <v>1.27</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$46-B5</f>
         <v>9.15</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D5</f>
         <v>1.31</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E5</f>
         <v>7.66</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="4"/>
+        <f>$B$47-G5</f>
         <v>1.58</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="5"/>
+        <f>$B$46-H5</f>
         <v>9.27</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J5</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K5</f>
         <v>8.5500000000000007</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="8"/>
+        <f>$B$47-M5</f>
         <v>1.5300000000000002</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="9"/>
+        <f>$B$46-N5</f>
         <v>6.74</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="10"/>
+        <f>$B$47-P5</f>
         <v>1.35</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="11"/>
+        <f>$B$46-Q5</f>
         <v>1.3399999999999999</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="12"/>
+        <f>$B$47-S5</f>
         <v>1.52</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="13"/>
+        <f>$B$46-T5</f>
         <v>0.66000000000000014</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="14"/>
+        <f>$B$47-V5</f>
         <v>1.4000000000000004</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="15"/>
+        <f>$B$46-W5</f>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="16"/>
+        <f>$B$47-Y5</f>
         <v>0.8400000000000003</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="17"/>
+        <f>$B$46-Z5</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f>$B$47-A6</f>
         <v>1.2400000000000002</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$46-B6</f>
         <v>8.9600000000000009</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D6</f>
         <v>1.3800000000000003</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E6</f>
         <v>7.8</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="4"/>
+        <f>$B$47-G6</f>
         <v>1.4700000000000002</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
+        <f>$B$46-H6</f>
         <v>7.52</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J6</f>
         <v>1.5</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K6</f>
         <v>7.75</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="8"/>
+        <f>$B$47-M6</f>
         <v>1.4400000000000004</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="9"/>
+        <f>$B$46-N6</f>
         <v>5.55</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="10"/>
+        <f>$B$47-P6</f>
         <v>1.5300000000000002</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="11"/>
+        <f>$B$46-Q6</f>
         <v>1.0399999999999991</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="12"/>
+        <f>$B$47-S6</f>
         <v>1.4400000000000004</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="13"/>
+        <f>$B$46-T6</f>
         <v>0.64000000000000057</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="14"/>
+        <f>$B$47-V6</f>
         <v>1.1900000000000004</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="15"/>
+        <f>$B$46-W6</f>
         <v>0.13000000000000078</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="16"/>
+        <f>$B$47-Y6</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="17"/>
+        <f>$B$46-Z6</f>
         <v>2.09</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D7</f>
         <v>1.4500000000000002</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E7</f>
         <v>8.15</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="4"/>
+        <f>$B$47-G7</f>
         <v>1.4300000000000002</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="5"/>
+        <f>$B$46-H7</f>
         <v>7.1099999999999994</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J7</f>
         <v>1.4500000000000002</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K7</f>
         <v>7.55</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="8"/>
+        <f>$B$47-M7</f>
         <v>1.23</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="9"/>
+        <f>$B$46-N7</f>
         <v>3.8600000000000003</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="10"/>
+        <f>$B$47-P7</f>
         <v>1.6600000000000001</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="11"/>
+        <f>$B$46-Q7</f>
         <v>0.97000000000000064</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="12"/>
+        <f>$B$47-S7</f>
         <v>1.1900000000000004</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="13"/>
+        <f>$B$46-T7</f>
         <v>0.60999999999999943</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="14"/>
+        <f>$B$47-V7</f>
         <v>0.99000000000000021</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="15"/>
+        <f>$B$46-W7</f>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="16"/>
+        <f>$B$47-Y7</f>
         <v>0.62000000000000011</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="17"/>
+        <f>$B$46-Z7</f>
         <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D8</f>
         <v>1.48</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E8</f>
         <v>8.32</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f>$B$47-G8</f>
         <v>1.3600000000000003</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="5"/>
+        <f>$B$46-H8</f>
         <v>6.6400000000000006</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J8</f>
         <v>1.4000000000000004</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K8</f>
         <v>6.88</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="8"/>
+        <f>$B$47-M8</f>
         <v>1.33</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="9"/>
+        <f>$B$46-N8</f>
         <v>4.1900000000000004</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="10"/>
+        <f>$B$47-P8</f>
         <v>1.75</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="11"/>
+        <f>$B$46-Q8</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="12"/>
+        <f>$B$47-S8</f>
         <v>1.02</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="13"/>
+        <f>$B$46-T8</f>
         <v>0.5600000000000005</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="14"/>
+        <f>$B$47-V8</f>
         <v>0.80000000000000027</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="15"/>
+        <f>$B$46-W8</f>
         <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D9</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E9</f>
         <v>9.09</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J9</f>
         <v>1.35</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K9</f>
         <v>6.3599999999999994</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="8"/>
+        <f>$B$47-M9</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="9"/>
+        <f>$B$46-N9</f>
         <v>3.0300000000000002</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="12"/>
+        <f>$B$47-S9</f>
         <v>0.80000000000000027</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="13"/>
+        <f>$B$46-T9</f>
         <v>0.5600000000000005</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="14"/>
+        <f>$B$47-V9</f>
         <v>0.70000000000000018</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="15"/>
+        <f>$B$46-W9</f>
         <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D10</f>
         <v>1.5700000000000003</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E10</f>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J10</f>
         <v>1.21</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K10</f>
         <v>6.88</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="12"/>
+        <f>$B$47-S10</f>
         <v>0.66999999999999993</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="13"/>
+        <f>$B$46-T10</f>
         <v>0.5600000000000005</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="14"/>
+        <f>$B$47-V10</f>
         <v>0.49000000000000021</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="15"/>
+        <f>$B$46-W10</f>
         <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$47-D11</f>
         <v>1.5100000000000002</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
+        <f>$B$46-E11</f>
         <v>8.35</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
+        <f>$B$47-J11</f>
         <v>1.1500000000000004</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="7"/>
+        <f>$B$46-K11</f>
         <v>6.58</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
+        <f>$B$47-J12</f>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="K25" s="1">
+        <f>$B$46-K12</f>
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <f>$B$47-J13</f>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="K26" s="1">
+        <f>$B$46-K13</f>
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A16*1000*$B$51</f>
+        <v>5.7522123893805315</v>
+      </c>
+      <c r="B29">
+        <f>A16*A16*10^6*$B$54/($B$59*B16*1000)</f>
+        <v>5.5770000000000017</v>
+      </c>
+      <c r="D29">
+        <f>D16*1000*$B$51</f>
+        <v>5.6194690265486722</v>
+      </c>
+      <c r="E29">
+        <f>D16*D16*10^6*$B$54/($B$59*E16*1000)</f>
+        <v>6.7119419924337951</v>
+      </c>
+      <c r="G29">
+        <f>G16*1000*$B$51</f>
+        <v>6.7256637168141591</v>
+      </c>
+      <c r="H29">
+        <f>G16*G16*10^6*$B$54/($B$59*H16*1000)</f>
+        <v>10.13872340425532</v>
+      </c>
+      <c r="J29">
+        <f>J16*1000*$B$51</f>
+        <v>7.2566371681415935</v>
+      </c>
+      <c r="K29">
+        <f>J16*J16*10^6*$B$54/($B$59*K16*1000)</f>
+        <v>8.8756799999999991</v>
+      </c>
+      <c r="M29">
+        <f>M16*1000*$B$51</f>
+        <v>7.5221238938053103</v>
+      </c>
+      <c r="N29">
+        <f>M16*M16*10^6*$B$54/($B$59*N16*1000)</f>
+        <v>9.536999999999999</v>
+      </c>
+      <c r="P29">
+        <f>P16*1000*$B$51</f>
+        <v>6.4601769911504423</v>
+      </c>
+      <c r="Q29">
+        <f>P16*P16*10^6*$B$54/($B$59*Q16*1000)</f>
+        <v>61.704210526315734</v>
+      </c>
+      <c r="S29">
+        <f>S16*1000*$B$51</f>
+        <v>7.7433628318584073</v>
+      </c>
+      <c r="T29">
+        <f>S16*S16*10^6*$B$54/($B$59*T16*1000)</f>
+        <v>136.57094594594588</v>
+      </c>
+      <c r="V29">
+        <f>V16*1000*$B$51</f>
+        <v>7.5221238938053103</v>
+      </c>
+      <c r="W29">
+        <f>V16*V16*10^6*$B$54/($B$59*W16*1000)</f>
+        <v>794.75000000000523</v>
+      </c>
+      <c r="Y29">
+        <f>Y16*1000*$B$51</f>
+        <v>4.6460176991150455</v>
+      </c>
+      <c r="Z29">
+        <f>Y16*Y16*10^6*$B$54/($B$59*Z16*1000)</f>
+        <v>7.909239130434786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A17*1000*$B$51</f>
+        <v>5.3982300884955761</v>
+      </c>
+      <c r="B30">
+        <f>A17*A17*10^6*$B$54/($B$59*B17*1000)</f>
+        <v>5.7447017543859653</v>
+      </c>
+      <c r="D30">
+        <f>D17*1000*$B$51</f>
+        <v>5.4867256637168147</v>
+      </c>
+      <c r="E30">
+        <f>D17*D17*10^6*$B$54/($B$59*E17*1000)</f>
+        <v>6.5387628865979393</v>
+      </c>
+      <c r="G30">
+        <f>G17*1000*$B$51</f>
+        <v>7.2123893805309747</v>
+      </c>
+      <c r="H30">
+        <f>G17*G17*10^6*$B$54/($B$59*H17*1000)</f>
+        <v>8.7677700000000023</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J39" si="0">J17*1000*$B$51</f>
+        <v>6.9911504424778759</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K38" si="1">J17*J17*10^6*$B$54/($B$59*K17*1000)</f>
+        <v>9.1738530066815152</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M35" si="2">M17*1000*$B$51</f>
+        <v>7.1238938053097351</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N35" si="3">M17*M17*10^6*$B$54/($B$59*N17*1000)</f>
+        <v>12.030843881856546</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P34" si="4">P17*1000*$B$51</f>
+        <v>5.1769911504424799</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q34" si="5">P17*P17*10^6*$B$54/($B$59*Q17*1000)</f>
+        <v>35.018372093023302</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S36" si="6">S17*1000*$B$51</f>
+        <v>7.2566371681415935</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:T36" si="7">S17*S17*10^6*$B$54/($B$59*T17*1000)</f>
+        <v>132.47283582089554</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30:V39" si="8">V17*1000*$B$51</f>
+        <v>7.0796460176991154</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30:W36" si="9">V17*V17*10^6*$B$54/($B$59*W17*1000)</f>
+        <v>704.00000000000477</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ref="Y30:Y35" si="10">Y17*1000*$B$51</f>
+        <v>4.2035398230088505</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" ref="Z30:Z35" si="11">Y17*Y17*10^6*$B$54/($B$59*Z17*1000)</f>
+        <v>9.3951104100946381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A18*1000*$B$51</f>
+        <v>5.6194690265486722</v>
+      </c>
+      <c r="B31">
+        <f>A18*A18*10^6*$B$54/($B$59*B18*1000)</f>
+        <v>5.8170163934426222</v>
+      </c>
+      <c r="D31">
+        <f>D18*1000*$B$51</f>
+        <v>5.7964601769911503</v>
+      </c>
+      <c r="E31">
+        <f>D18*D18*10^6*$B$54/($B$59*E18*1000)</f>
+        <v>7.3931201044386432</v>
+      </c>
+      <c r="G31">
+        <f>G18*1000*$B$51</f>
+        <v>6.9911504424778759</v>
+      </c>
+      <c r="H31">
+        <f>G18*G18*10^6*$B$54/($B$59*H18*1000)</f>
+        <v>8.8868608414239478</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>6.8584070796460184</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>9.2728070175438617</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>6.7699115044247797</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>11.461379821958458</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>5.9734513274336285</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>44.882462686567173</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="6"/>
-        <v>1.1100000000000003</v>
-      </c>
-      <c r="K25" s="1">
+        <v>6.7256637168141591</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="7"/>
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>115.51999999999994</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="8"/>
+        <v>6.1946902654867273</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>539.00000000000387</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>3.7168141592920367</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="11"/>
+        <v>7.7616000000000058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A19*1000*$B$51</f>
+        <v>5.4867256637168147</v>
+      </c>
+      <c r="B32">
+        <f>A19*A19*10^6*$B$54/($B$59*B19*1000)</f>
+        <v>5.6630357142857148</v>
+      </c>
+      <c r="D32">
+        <f>D19*1000*$B$51</f>
+        <v>6.1061946902654878</v>
+      </c>
+      <c r="E32">
+        <f>D19*D19*10^6*$B$54/($B$59*E19*1000)</f>
+        <v>8.0570769230769272</v>
+      </c>
+      <c r="G32">
+        <f>G19*1000*$B$51</f>
+        <v>6.504424778761063</v>
+      </c>
+      <c r="H32">
+        <f>G19*G19*10^6*$B$54/($B$59*H19*1000)</f>
+        <v>9.4826728723404301</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>6.6371681415929205</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>9.5806451612903203</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>6.3716814159292054</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>12.329513513513518</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>6.7699115044247797</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>74.278557692307771</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>6.3716814159292054</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="7"/>
+        <v>106.91999999999994</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="8"/>
+        <v>5.2654867256637186</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>359.47153846153651</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="10"/>
+        <v>3.2743362831858418</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="11"/>
+        <v>8.6463157894736895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>D20*1000*$B$51</f>
+        <v>6.4159292035398243</v>
+      </c>
+      <c r="E33">
+        <f>D20*D20*10^6*$B$54/($B$59*E20*1000)</f>
+        <v>8.5131901840490816</v>
+      </c>
+      <c r="G33">
+        <f>G20*1000*$B$51</f>
+        <v>6.3274336283185848</v>
+      </c>
+      <c r="H33">
+        <f>G20*G20*10^6*$B$54/($B$59*H20*1000)</f>
+        <v>9.4910970464135058</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>6.4159292035398243</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>9.1897350993377493</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>5.4424778761061949</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>12.934119170984452</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>7.3451327433628331</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>93.747216494845304</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>5.2654867256637186</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="7"/>
+        <v>76.608688524590278</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="8"/>
+        <v>4.3805309734513287</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>269.52750000000185</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="10"/>
+        <v>2.7433628318584073</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="11"/>
+        <v>6.9698901098901098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>D21*1000*$B$51</f>
+        <v>6.5486725663716809</v>
+      </c>
+      <c r="E34">
+        <f>D21*D21*10^6*$B$54/($B$59*E21*1000)</f>
+        <v>8.6878846153846148</v>
+      </c>
+      <c r="G34">
+        <f>G21*1000*$B$51</f>
+        <v>6.0176991150442491</v>
+      </c>
+      <c r="H34">
+        <f>G21*G21*10^6*$B$54/($B$59*H21*1000)</f>
+        <v>9.1922891566265061</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>6.1946902654867273</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>9.4011627906976791</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>5.884955752212389</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>13.931670644391406</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>7.7433628318584073</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>112.29166666666661</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>4.5132743362831862</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="7"/>
+        <v>61.309285714285657</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="8"/>
+        <v>3.5398230088495586</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>176.00000000000125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>D22*1000*$B$51</f>
+        <v>6.8584070796460184</v>
+      </c>
+      <c r="E35">
+        <f>D22*D22*10^6*$B$54/($B$59*E22*1000)</f>
+        <v>8.7219471947194744</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>5.9734513274336285</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>9.456367924528303</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>4.8672566371681416</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>13.178217821782178</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>3.5398230088495586</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="7"/>
+        <v>37.714285714285708</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="8"/>
+        <v>3.0973451327433636</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>134.75000000000097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>D23*1000*$B$51</f>
+        <v>6.9469026548672579</v>
+      </c>
+      <c r="E36">
+        <f>D23*D23*10^6*$B$54/($B$59*E23*1000)</f>
+        <v>8.134170000000001</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>5.3539823008849554</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>7.0225726744186039</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>2.9646017699115039</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="7"/>
+        <v>26.453035714285683</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="8"/>
+        <v>2.1681415929203549</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>66.027500000000487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>D24*1000*$B$51</f>
+        <v>6.6814159292035411</v>
+      </c>
+      <c r="E37">
+        <f>D24*D24*10^6*$B$54/($B$59*E24*1000)</f>
+        <v>9.0111736526946142</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>5.0884955752212413</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>6.6325987841945331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>4.9115044247787623</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>6.9981583476764229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="6"/>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="7"/>
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>5.7522123893805315</v>
+      </c>
+      <c r="K39">
+        <f>J26*J26*10^6*$B$54/($B$59*K26*1000)</f>
+        <v>7.7891061452513997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B46" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B47" s="3">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <f>1/2250</f>
+        <v>4.4444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <f>1/226</f>
+        <v>4.4247787610619468E-3</v>
+      </c>
+      <c r="C51">
+        <f>1/-226</f>
+        <v>-4.4247787610619468E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <f>10/10^9</f>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <f>100/10^9</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <f>B54</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57">
+        <f>B54/B53</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <f>B50/B51</f>
+        <v>0.10044444444444445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <f>100*1000*B55/3300</f>
+        <v>3.0303030303030305E-6</v>
       </c>
     </row>
   </sheetData>
@@ -5697,11 +7689,11 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <f>'Состояние системы'!$B$34 - A2</f>
+        <f>'Состояние системы'!$B$47 - A2</f>
         <v>1.2800000000000002</v>
       </c>
       <c r="L2">
-        <f>'Состояние системы'!$B$33-B2</f>
+        <f>'Состояние системы'!$B$46-B2</f>
         <v>7.82</v>
       </c>
     </row>
@@ -5740,11 +7732,11 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <f>'Состояние системы'!$B$34 - A3</f>
+        <f>'Состояние системы'!$B$47 - A3</f>
         <v>1.3600000000000003</v>
       </c>
       <c r="L3">
-        <f>'Состояние системы'!$B$33-B3</f>
+        <f>'Состояние системы'!$B$46-B3</f>
         <v>7.8100000000000005</v>
       </c>
     </row>
@@ -5783,11 +7775,11 @@
         <v>6.5</v>
       </c>
       <c r="K4">
-        <f>'Состояние системы'!$B$34 - A4</f>
+        <f>'Состояние системы'!$B$47 - A4</f>
         <v>1.4700000000000002</v>
       </c>
       <c r="L4">
-        <f>'Состояние системы'!$B$33-B4</f>
+        <f>'Состояние системы'!$B$46-B4</f>
         <v>8.32</v>
       </c>
     </row>
@@ -5826,11 +7818,11 @@
         <v>5.5</v>
       </c>
       <c r="K5">
-        <f>'Состояние системы'!$B$34 - A5</f>
+        <f>'Состояние системы'!$B$47 - A5</f>
         <v>1.5100000000000002</v>
       </c>
       <c r="L5">
-        <f>'Состояние системы'!$B$33-B5</f>
+        <f>'Состояние системы'!$B$46-B5</f>
         <v>10</v>
       </c>
     </row>
@@ -5869,11 +7861,11 @@
         <v>6.5</v>
       </c>
       <c r="K6">
-        <f>'Состояние системы'!$B$34 - A6</f>
+        <f>'Состояние системы'!$B$47 - A6</f>
         <v>1.5700000000000003</v>
       </c>
       <c r="L6">
-        <f>'Состояние системы'!$B$33-B6</f>
+        <f>'Состояние системы'!$B$46-B6</f>
         <v>10</v>
       </c>
     </row>
@@ -5912,11 +7904,11 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <f>'Состояние системы'!$B$34 - A7</f>
+        <f>'Состояние системы'!$B$47 - A7</f>
         <v>1.35</v>
       </c>
       <c r="L7">
-        <f>'Состояние системы'!$B$33-B7</f>
+        <f>'Состояние системы'!$B$46-B7</f>
         <v>9.14</v>
       </c>
     </row>
@@ -5955,11 +7947,11 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <f>'Состояние системы'!$B$34 - A8</f>
+        <f>'Состояние системы'!$B$47 - A8</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="L8">
-        <f>'Состояние системы'!$B$33-B8</f>
+        <f>'Состояние системы'!$B$46-B8</f>
         <v>8.14</v>
       </c>
     </row>
@@ -5998,11 +7990,11 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <f>'Состояние системы'!$B$34 - A9</f>
+        <f>'Состояние системы'!$B$47 - A9</f>
         <v>1.37</v>
       </c>
       <c r="L9">
-        <f>'Состояние системы'!$B$33-B9</f>
+        <f>'Состояние системы'!$B$46-B9</f>
         <v>10</v>
       </c>
     </row>
@@ -6041,11 +8033,11 @@
         <v>5.8</v>
       </c>
       <c r="K10">
-        <f>'Состояние системы'!$B$34 - A10</f>
+        <f>'Состояние системы'!$B$47 - A10</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="L10">
-        <f>'Состояние системы'!$B$33-B10</f>
+        <f>'Состояние системы'!$B$46-B10</f>
         <v>8.69</v>
       </c>
     </row>
@@ -6084,11 +8076,11 @@
         <v>5.8</v>
       </c>
       <c r="K11">
-        <f>'Состояние системы'!$B$34 - A11</f>
+        <f>'Состояние системы'!$B$47 - A11</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="L11">
-        <f>'Состояние системы'!$B$33-B11</f>
+        <f>'Состояние системы'!$B$46-B11</f>
         <v>9.44</v>
       </c>
     </row>
@@ -6127,11 +8119,11 @@
         <v>4.8</v>
       </c>
       <c r="K12">
-        <f>'Состояние системы'!$B$34 - A12</f>
+        <f>'Состояние системы'!$B$47 - A12</f>
         <v>1.4400000000000004</v>
       </c>
       <c r="L12">
-        <f>'Состояние системы'!$B$33-B12</f>
+        <f>'Состояние системы'!$B$46-B12</f>
         <v>10</v>
       </c>
     </row>
@@ -6170,11 +8162,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K13">
-        <f>'Состояние системы'!$B$34 - A13</f>
+        <f>'Состояние системы'!$B$47 - A13</f>
         <v>1.4400000000000004</v>
       </c>
       <c r="L13">
-        <f>'Состояние системы'!$B$33-B13</f>
+        <f>'Состояние системы'!$B$46-B13</f>
         <v>9.16</v>
       </c>
     </row>
@@ -6213,11 +8205,11 @@
         <v>4</v>
       </c>
       <c r="K14">
-        <f>'Состояние системы'!$B$34 - A14</f>
+        <f>'Состояние системы'!$B$47 - A14</f>
         <v>1.31</v>
       </c>
       <c r="L14">
-        <f>'Состояние системы'!$B$33-B14</f>
+        <f>'Состояние системы'!$B$46-B14</f>
         <v>10</v>
       </c>
     </row>
@@ -6256,11 +8248,11 @@
         <v>3.8</v>
       </c>
       <c r="K15">
-        <f>'Состояние системы'!$B$34 - A15</f>
+        <f>'Состояние системы'!$B$47 - A15</f>
         <v>1.31</v>
       </c>
       <c r="L15">
-        <f>'Состояние системы'!$B$33-B15</f>
+        <f>'Состояние системы'!$B$46-B15</f>
         <v>7.93</v>
       </c>
     </row>
@@ -6299,11 +8291,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K16">
-        <f>'Состояние системы'!$B$34 - A16</f>
+        <f>'Состояние системы'!$B$47 - A16</f>
         <v>1.1500000000000004</v>
       </c>
       <c r="L16">
-        <f>'Состояние системы'!$B$33-B16</f>
+        <f>'Состояние системы'!$B$46-B16</f>
         <v>8.27</v>
       </c>
     </row>
@@ -6389,11 +8381,11 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <f>'Состояние системы'!$B$33 - B2</f>
+        <f>'Состояние системы'!$B$46 - B2</f>
         <v>10</v>
       </c>
       <c r="J2">
-        <f>'Состояние системы'!$B$34-A2</f>
+        <f>'Состояние системы'!$B$47-A2</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="K2">
@@ -6427,7 +8419,7 @@
         <v>2.5</v>
       </c>
       <c r="I3">
-        <f>'Состояние системы'!$B$33 - B3</f>
+        <f>'Состояние системы'!$B$46 - B3</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="K3">
@@ -6461,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>'Состояние системы'!$B$33 - B4</f>
+        <f>'Состояние системы'!$B$46 - B4</f>
         <v>7.9</v>
       </c>
       <c r="K4">
@@ -6495,7 +8487,7 @@
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f>'Состояние системы'!$B$33 - B5</f>
+        <f>'Состояние системы'!$B$46 - B5</f>
         <v>7.15</v>
       </c>
       <c r="K5">
@@ -6529,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>'Состояние системы'!$B$33 - B6</f>
+        <f>'Состояние системы'!$B$46 - B6</f>
         <v>7.1400000000000006</v>
       </c>
       <c r="K6">
@@ -6563,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>'Состояние системы'!$B$33 - B7</f>
+        <f>'Состояние системы'!$B$46 - B7</f>
         <v>1.08</v>
       </c>
       <c r="K7">
@@ -6597,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>'Состояние системы'!$B$33 - B8</f>
+        <f>'Состояние системы'!$B$46 - B8</f>
         <v>1.0700000000000003</v>
       </c>
       <c r="K8">
@@ -6631,7 +8623,7 @@
         <v>0.5</v>
       </c>
       <c r="I9">
-        <f>'Состояние системы'!$B$33 - B9</f>
+        <f>'Состояние системы'!$B$46 - B9</f>
         <v>0.86999999999999922</v>
       </c>
       <c r="K9">
@@ -6665,7 +8657,7 @@
         <v>0.5</v>
       </c>
       <c r="I10">
-        <f>'Состояние системы'!$B$33 - B10</f>
+        <f>'Состояние системы'!$B$46 - B10</f>
         <v>0.83000000000000007</v>
       </c>
       <c r="K10">
@@ -6699,7 +8691,7 @@
         <v>0.75</v>
       </c>
       <c r="I11">
-        <f>'Состояние системы'!$B$33 - B11</f>
+        <f>'Состояние системы'!$B$46 - B11</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="K11">
@@ -6733,7 +8725,7 @@
         <v>0.5</v>
       </c>
       <c r="I12">
-        <f>'Состояние системы'!$B$33 - B12</f>
+        <f>'Состояние системы'!$B$46 - B12</f>
         <v>0.69999999999999929</v>
       </c>
       <c r="K12">
@@ -6767,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <f>'Состояние системы'!$B$33 - B13</f>
+        <f>'Состояние системы'!$B$46 - B13</f>
         <v>0.67999999999999972</v>
       </c>
       <c r="K13">
@@ -6801,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f>'Состояние системы'!$B$33 - B14</f>
+        <f>'Состояние системы'!$B$46 - B14</f>
         <v>0.36999999999999922</v>
       </c>
       <c r="K14">
@@ -6835,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f>'Состояние системы'!$B$33 - B15</f>
+        <f>'Состояние системы'!$B$46 - B15</f>
         <v>0.22000000000000064</v>
       </c>
       <c r="K15">
@@ -6869,7 +8861,7 @@
         <v>0.4</v>
       </c>
       <c r="I16">
-        <f>'Состояние системы'!$B$33 - B16</f>
+        <f>'Состояние системы'!$B$46 - B16</f>
         <v>0.16999999999999993</v>
       </c>
       <c r="K16">
@@ -6903,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>'Состояние системы'!$B$33 - B17</f>
+        <f>'Состояние системы'!$B$46 - B17</f>
         <v>0.14000000000000057</v>
       </c>
       <c r="K17">
@@ -6924,7 +8916,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/data_process/data.xlsx
+++ b/data_process/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chua's_curcuit\data_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7027B4-E8BE-47E5-A904-3D941B5F6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B59E08-501D-4BC0-939B-6359E280AC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Переход БПЦ к ДПА</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>В исходных переменных R-RL</t>
+  </si>
+  <si>
+    <t>тут минус ещё</t>
   </si>
 </sst>
 </file>
@@ -2237,6 +2240,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5778,8 +5782,8 @@
   </sheetPr>
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="86" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6346,59 +6350,59 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <f>$B$47-D3</f>
+        <f t="shared" ref="D16:D24" si="0">$B$47-D3</f>
         <v>1.27</v>
       </c>
       <c r="E16" s="1">
-        <f>$B$46-E3</f>
+        <f t="shared" ref="E16:E24" si="1">$B$46-E3</f>
         <v>7.93</v>
       </c>
       <c r="G16" s="1">
-        <f>$B$47-G3</f>
+        <f t="shared" ref="G16:G21" si="2">$B$47-G3</f>
         <v>1.52</v>
       </c>
       <c r="H16" s="1">
-        <f>$B$46-H3</f>
+        <f t="shared" ref="H16:H21" si="3">$B$46-H3</f>
         <v>7.52</v>
       </c>
       <c r="J16" s="1">
-        <f>$B$47-J3</f>
+        <f t="shared" ref="J16:J26" si="4">$B$47-J3</f>
         <v>1.6400000000000001</v>
       </c>
       <c r="K16" s="1">
-        <f>$B$46-K3</f>
+        <f t="shared" ref="K16:K26" si="5">$B$46-K3</f>
         <v>10</v>
       </c>
       <c r="M16" s="1">
-        <f>$B$47-M3</f>
+        <f t="shared" ref="M16:M22" si="6">$B$47-M3</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="N16" s="1">
-        <f>$B$46-N3</f>
+        <f t="shared" ref="N16:N22" si="7">$B$46-N3</f>
         <v>10</v>
       </c>
       <c r="P16" s="1">
-        <f>$B$47-P3</f>
+        <f t="shared" ref="P16:P21" si="8">$B$47-P3</f>
         <v>1.46</v>
       </c>
       <c r="Q16" s="1">
-        <f>$B$46-Q3</f>
+        <f t="shared" ref="Q16:Q21" si="9">$B$46-Q3</f>
         <v>1.1400000000000006</v>
       </c>
       <c r="S16" s="1">
-        <f>$B$47-S3</f>
+        <f t="shared" ref="S16:S23" si="10">$B$47-S3</f>
         <v>1.75</v>
       </c>
       <c r="T16" s="1">
-        <f>$B$46-T3</f>
+        <f t="shared" ref="T16:T23" si="11">$B$46-T3</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="V16" s="1">
-        <f>$B$47-V3</f>
+        <f t="shared" ref="V16:V23" si="12">$B$47-V3</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="W16" s="1">
-        <f>$B$46-W3</f>
+        <f t="shared" ref="W16:W23" si="13">$B$46-W3</f>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y16" s="1">
@@ -6420,59 +6424,59 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="D17" s="1">
-        <f>$B$47-D4</f>
+        <f t="shared" si="0"/>
         <v>1.2400000000000002</v>
       </c>
       <c r="E17" s="1">
-        <f>$B$46-E4</f>
+        <f t="shared" si="1"/>
         <v>7.76</v>
       </c>
       <c r="G17" s="1">
-        <f>$B$47-G4</f>
+        <f t="shared" si="2"/>
         <v>1.6300000000000003</v>
       </c>
       <c r="H17" s="1">
-        <f>$B$46-H4</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f>$B$47-J4</f>
+        <f t="shared" si="4"/>
         <v>1.58</v>
       </c>
       <c r="K17" s="1">
-        <f>$B$46-K4</f>
+        <f t="shared" si="5"/>
         <v>8.98</v>
       </c>
       <c r="M17" s="1">
-        <f>$B$47-M4</f>
+        <f t="shared" si="6"/>
         <v>1.6100000000000003</v>
       </c>
       <c r="N17" s="1">
-        <f>$B$46-N4</f>
+        <f t="shared" si="7"/>
         <v>7.1099999999999994</v>
       </c>
       <c r="P17" s="1">
-        <f>$B$47-P4</f>
+        <f t="shared" si="8"/>
         <v>1.1700000000000004</v>
       </c>
       <c r="Q17" s="1">
-        <f>$B$46-Q4</f>
+        <f t="shared" si="9"/>
         <v>1.2899999999999991</v>
       </c>
       <c r="S17" s="1">
-        <f>$B$47-S4</f>
+        <f t="shared" si="10"/>
         <v>1.6400000000000001</v>
       </c>
       <c r="T17" s="1">
-        <f>$B$46-T4</f>
+        <f t="shared" si="11"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="V17" s="1">
-        <f>$B$47-V4</f>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="W17" s="1">
-        <f>$B$46-W4</f>
+        <f t="shared" si="13"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y17" s="1">
@@ -6494,59 +6498,59 @@
         <v>9.15</v>
       </c>
       <c r="D18" s="1">
-        <f>$B$47-D5</f>
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
       <c r="E18" s="1">
-        <f>$B$46-E5</f>
+        <f t="shared" si="1"/>
         <v>7.66</v>
       </c>
       <c r="G18" s="1">
-        <f>$B$47-G5</f>
+        <f t="shared" si="2"/>
         <v>1.58</v>
       </c>
       <c r="H18" s="1">
-        <f>$B$46-H5</f>
+        <f t="shared" si="3"/>
         <v>9.27</v>
       </c>
       <c r="J18" s="1">
-        <f>$B$47-J5</f>
+        <f t="shared" si="4"/>
         <v>1.5500000000000003</v>
       </c>
       <c r="K18" s="1">
-        <f>$B$46-K5</f>
+        <f t="shared" si="5"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="M18" s="1">
-        <f>$B$47-M5</f>
+        <f t="shared" si="6"/>
         <v>1.5300000000000002</v>
       </c>
       <c r="N18" s="1">
-        <f>$B$46-N5</f>
+        <f t="shared" si="7"/>
         <v>6.74</v>
       </c>
       <c r="P18" s="1">
-        <f>$B$47-P5</f>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
       <c r="Q18" s="1">
-        <f>$B$46-Q5</f>
+        <f t="shared" si="9"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="S18" s="1">
-        <f>$B$47-S5</f>
+        <f t="shared" si="10"/>
         <v>1.52</v>
       </c>
       <c r="T18" s="1">
-        <f>$B$46-T5</f>
+        <f t="shared" si="11"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="V18" s="1">
-        <f>$B$47-V5</f>
+        <f t="shared" si="12"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="W18" s="1">
-        <f>$B$46-W5</f>
+        <f t="shared" si="13"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y18" s="1">
@@ -6568,59 +6572,59 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="D19" s="1">
-        <f>$B$47-D6</f>
+        <f t="shared" si="0"/>
         <v>1.3800000000000003</v>
       </c>
       <c r="E19" s="1">
-        <f>$B$46-E6</f>
+        <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
       <c r="G19" s="1">
-        <f>$B$47-G6</f>
+        <f t="shared" si="2"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="H19" s="1">
-        <f>$B$46-H6</f>
+        <f t="shared" si="3"/>
         <v>7.52</v>
       </c>
       <c r="J19" s="1">
-        <f>$B$47-J6</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K19" s="1">
-        <f>$B$46-K6</f>
+        <f t="shared" si="5"/>
         <v>7.75</v>
       </c>
       <c r="M19" s="1">
-        <f>$B$47-M6</f>
+        <f t="shared" si="6"/>
         <v>1.4400000000000004</v>
       </c>
       <c r="N19" s="1">
-        <f>$B$46-N6</f>
+        <f t="shared" si="7"/>
         <v>5.55</v>
       </c>
       <c r="P19" s="1">
-        <f>$B$47-P6</f>
+        <f t="shared" si="8"/>
         <v>1.5300000000000002</v>
       </c>
       <c r="Q19" s="1">
-        <f>$B$46-Q6</f>
+        <f t="shared" si="9"/>
         <v>1.0399999999999991</v>
       </c>
       <c r="S19" s="1">
-        <f>$B$47-S6</f>
+        <f t="shared" si="10"/>
         <v>1.4400000000000004</v>
       </c>
       <c r="T19" s="1">
-        <f>$B$46-T6</f>
+        <f t="shared" si="11"/>
         <v>0.64000000000000057</v>
       </c>
       <c r="V19" s="1">
-        <f>$B$47-V6</f>
+        <f t="shared" si="12"/>
         <v>1.1900000000000004</v>
       </c>
       <c r="W19" s="1">
-        <f>$B$46-W6</f>
+        <f t="shared" si="13"/>
         <v>0.13000000000000078</v>
       </c>
       <c r="Y19" s="1">
@@ -6634,59 +6638,59 @@
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
-        <f>$B$47-D7</f>
+        <f t="shared" si="0"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="E20" s="1">
-        <f>$B$46-E7</f>
+        <f t="shared" si="1"/>
         <v>8.15</v>
       </c>
       <c r="G20" s="1">
-        <f>$B$47-G7</f>
+        <f t="shared" si="2"/>
         <v>1.4300000000000002</v>
       </c>
       <c r="H20" s="1">
-        <f>$B$46-H7</f>
+        <f t="shared" si="3"/>
         <v>7.1099999999999994</v>
       </c>
       <c r="J20" s="1">
-        <f>$B$47-J7</f>
+        <f t="shared" si="4"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="K20" s="1">
-        <f>$B$46-K7</f>
+        <f t="shared" si="5"/>
         <v>7.55</v>
       </c>
       <c r="M20" s="1">
-        <f>$B$47-M7</f>
+        <f t="shared" si="6"/>
         <v>1.23</v>
       </c>
       <c r="N20" s="1">
-        <f>$B$46-N7</f>
+        <f t="shared" si="7"/>
         <v>3.8600000000000003</v>
       </c>
       <c r="P20" s="1">
-        <f>$B$47-P7</f>
+        <f t="shared" si="8"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="Q20" s="1">
-        <f>$B$46-Q7</f>
+        <f t="shared" si="9"/>
         <v>0.97000000000000064</v>
       </c>
       <c r="S20" s="1">
-        <f>$B$47-S7</f>
+        <f t="shared" si="10"/>
         <v>1.1900000000000004</v>
       </c>
       <c r="T20" s="1">
-        <f>$B$46-T7</f>
+        <f t="shared" si="11"/>
         <v>0.60999999999999943</v>
       </c>
       <c r="V20" s="1">
-        <f>$B$47-V7</f>
+        <f t="shared" si="12"/>
         <v>0.99000000000000021</v>
       </c>
       <c r="W20" s="1">
-        <f>$B$46-W7</f>
+        <f t="shared" si="13"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="Y20" s="1">
@@ -6700,173 +6704,173 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <f>$B$47-D8</f>
+        <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
       <c r="E21" s="1">
-        <f>$B$46-E8</f>
+        <f t="shared" si="1"/>
         <v>8.32</v>
       </c>
       <c r="G21" s="1">
-        <f>$B$47-G8</f>
+        <f t="shared" si="2"/>
         <v>1.3600000000000003</v>
       </c>
       <c r="H21" s="1">
-        <f>$B$46-H8</f>
+        <f t="shared" si="3"/>
         <v>6.6400000000000006</v>
       </c>
       <c r="J21" s="1">
-        <f>$B$47-J8</f>
+        <f t="shared" si="4"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="K21" s="1">
-        <f>$B$46-K8</f>
+        <f t="shared" si="5"/>
         <v>6.88</v>
       </c>
       <c r="M21" s="1">
-        <f>$B$47-M8</f>
+        <f t="shared" si="6"/>
         <v>1.33</v>
       </c>
       <c r="N21" s="1">
-        <f>$B$46-N8</f>
+        <f t="shared" si="7"/>
         <v>4.1900000000000004</v>
       </c>
       <c r="P21" s="1">
-        <f>$B$47-P8</f>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="Q21" s="1">
-        <f>$B$46-Q8</f>
+        <f t="shared" si="9"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="S21" s="1">
-        <f>$B$47-S8</f>
+        <f t="shared" si="10"/>
         <v>1.02</v>
       </c>
       <c r="T21" s="1">
-        <f>$B$46-T8</f>
+        <f t="shared" si="11"/>
         <v>0.5600000000000005</v>
       </c>
       <c r="V21" s="1">
-        <f>$B$47-V8</f>
+        <f t="shared" si="12"/>
         <v>0.80000000000000027</v>
       </c>
       <c r="W21" s="1">
-        <f>$B$46-W8</f>
+        <f t="shared" si="13"/>
         <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
-        <f>$B$47-D9</f>
+        <f t="shared" si="0"/>
         <v>1.5500000000000003</v>
       </c>
       <c r="E22" s="1">
-        <f>$B$46-E9</f>
+        <f t="shared" si="1"/>
         <v>9.09</v>
       </c>
       <c r="J22" s="1">
-        <f>$B$47-J9</f>
+        <f t="shared" si="4"/>
         <v>1.35</v>
       </c>
       <c r="K22" s="1">
-        <f>$B$46-K9</f>
+        <f t="shared" si="5"/>
         <v>6.3599999999999994</v>
       </c>
       <c r="M22" s="1">
-        <f>$B$47-M9</f>
+        <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="N22" s="1">
-        <f>$B$46-N9</f>
+        <f t="shared" si="7"/>
         <v>3.0300000000000002</v>
       </c>
       <c r="S22" s="1">
-        <f>$B$47-S9</f>
+        <f t="shared" si="10"/>
         <v>0.80000000000000027</v>
       </c>
       <c r="T22" s="1">
-        <f>$B$46-T9</f>
+        <f t="shared" si="11"/>
         <v>0.5600000000000005</v>
       </c>
       <c r="V22" s="1">
-        <f>$B$47-V9</f>
+        <f t="shared" si="12"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="W22" s="1">
-        <f>$B$46-W9</f>
+        <f t="shared" si="13"/>
         <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
-        <f>$B$47-D10</f>
+        <f t="shared" si="0"/>
         <v>1.5700000000000003</v>
       </c>
       <c r="E23" s="1">
-        <f>$B$46-E10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f>$B$47-J10</f>
+        <f t="shared" si="4"/>
         <v>1.21</v>
       </c>
       <c r="K23" s="1">
-        <f>$B$46-K10</f>
+        <f t="shared" si="5"/>
         <v>6.88</v>
       </c>
       <c r="S23" s="1">
-        <f>$B$47-S10</f>
+        <f t="shared" si="10"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="T23" s="1">
-        <f>$B$46-T10</f>
+        <f t="shared" si="11"/>
         <v>0.5600000000000005</v>
       </c>
       <c r="V23" s="1">
-        <f>$B$47-V10</f>
+        <f t="shared" si="12"/>
         <v>0.49000000000000021</v>
       </c>
       <c r="W23" s="1">
-        <f>$B$46-W10</f>
+        <f t="shared" si="13"/>
         <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
-        <f>$B$47-D11</f>
+        <f t="shared" si="0"/>
         <v>1.5100000000000002</v>
       </c>
       <c r="E24" s="1">
-        <f>$B$46-E11</f>
+        <f t="shared" si="1"/>
         <v>8.35</v>
       </c>
       <c r="J24" s="1">
-        <f>$B$47-J11</f>
+        <f t="shared" si="4"/>
         <v>1.1500000000000004</v>
       </c>
       <c r="K24" s="1">
-        <f>$B$46-K11</f>
+        <f t="shared" si="5"/>
         <v>6.58</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
-        <f>$B$47-J12</f>
+        <f t="shared" si="4"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="K25" s="1">
-        <f>$B$46-K12</f>
+        <f t="shared" si="5"/>
         <v>5.81</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" s="1">
-        <f>$B$47-J13</f>
+        <f t="shared" si="4"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="K26" s="1">
-        <f>$B$46-K13</f>
+        <f t="shared" si="5"/>
         <v>7.16</v>
       </c>
     </row>
@@ -6939,19 +6943,19 @@
         <v>5.5770000000000017</v>
       </c>
       <c r="D29">
-        <f>D16*1000*$B$51</f>
+        <f t="shared" ref="D29:D37" si="14">D16*1000*$B$51</f>
         <v>5.6194690265486722</v>
       </c>
       <c r="E29">
-        <f>D16*D16*10^6*$B$54/($B$59*E16*1000)</f>
+        <f t="shared" ref="E29:E37" si="15">D16*D16*10^6*$B$54/($B$59*E16*1000)</f>
         <v>6.7119419924337951</v>
       </c>
       <c r="G29">
-        <f>G16*1000*$B$51</f>
+        <f t="shared" ref="G29:G34" si="16">G16*1000*$B$51</f>
         <v>6.7256637168141591</v>
       </c>
       <c r="H29">
-        <f>G16*G16*10^6*$B$54/($B$59*H16*1000)</f>
+        <f t="shared" ref="H29:H34" si="17">G16*G16*10^6*$B$54/($B$59*H16*1000)</f>
         <v>10.13872340425532</v>
       </c>
       <c r="J29">
@@ -7013,67 +7017,67 @@
         <v>5.7447017543859653</v>
       </c>
       <c r="D30">
-        <f>D17*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>5.4867256637168147</v>
       </c>
       <c r="E30">
-        <f>D17*D17*10^6*$B$54/($B$59*E17*1000)</f>
+        <f t="shared" si="15"/>
         <v>6.5387628865979393</v>
       </c>
       <c r="G30">
-        <f>G17*1000*$B$51</f>
+        <f t="shared" si="16"/>
         <v>7.2123893805309747</v>
       </c>
       <c r="H30">
-        <f>G17*G17*10^6*$B$54/($B$59*H17*1000)</f>
+        <f t="shared" si="17"/>
         <v>8.7677700000000023</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J39" si="0">J17*1000*$B$51</f>
+        <f t="shared" ref="J30:J39" si="18">J17*1000*$B$51</f>
         <v>6.9911504424778759</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K38" si="1">J17*J17*10^6*$B$54/($B$59*K17*1000)</f>
+        <f t="shared" ref="K30:K38" si="19">J17*J17*10^6*$B$54/($B$59*K17*1000)</f>
         <v>9.1738530066815152</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:M35" si="2">M17*1000*$B$51</f>
+        <f t="shared" ref="M30:M35" si="20">M17*1000*$B$51</f>
         <v>7.1238938053097351</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N35" si="3">M17*M17*10^6*$B$54/($B$59*N17*1000)</f>
+        <f t="shared" ref="N30:N35" si="21">M17*M17*10^6*$B$54/($B$59*N17*1000)</f>
         <v>12.030843881856546</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:P34" si="4">P17*1000*$B$51</f>
+        <f t="shared" ref="P30:P34" si="22">P17*1000*$B$51</f>
         <v>5.1769911504424799</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q34" si="5">P17*P17*10^6*$B$54/($B$59*Q17*1000)</f>
+        <f t="shared" ref="Q30:Q34" si="23">P17*P17*10^6*$B$54/($B$59*Q17*1000)</f>
         <v>35.018372093023302</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30:S36" si="6">S17*1000*$B$51</f>
+        <f t="shared" ref="S30:S36" si="24">S17*1000*$B$51</f>
         <v>7.2566371681415935</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:T36" si="7">S17*S17*10^6*$B$54/($B$59*T17*1000)</f>
+        <f t="shared" ref="T30:T36" si="25">S17*S17*10^6*$B$54/($B$59*T17*1000)</f>
         <v>132.47283582089554</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:V39" si="8">V17*1000*$B$51</f>
+        <f t="shared" ref="V30:V36" si="26">V17*1000*$B$51</f>
         <v>7.0796460176991154</v>
       </c>
       <c r="W30">
-        <f t="shared" ref="W30:W36" si="9">V17*V17*10^6*$B$54/($B$59*W17*1000)</f>
+        <f t="shared" ref="W30:W36" si="27">V17*V17*10^6*$B$54/($B$59*W17*1000)</f>
         <v>704.00000000000477</v>
       </c>
       <c r="Y30">
-        <f t="shared" ref="Y30:Y35" si="10">Y17*1000*$B$51</f>
+        <f t="shared" ref="Y30:Y33" si="28">Y17*1000*$B$51</f>
         <v>4.2035398230088505</v>
       </c>
       <c r="Z30">
-        <f t="shared" ref="Z30:Z35" si="11">Y17*Y17*10^6*$B$54/($B$59*Z17*1000)</f>
+        <f t="shared" ref="Z30:Z33" si="29">Y17*Y17*10^6*$B$54/($B$59*Z17*1000)</f>
         <v>9.3951104100946381</v>
       </c>
     </row>
@@ -7087,67 +7091,67 @@
         <v>5.8170163934426222</v>
       </c>
       <c r="D31">
-        <f>D18*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>5.7964601769911503</v>
       </c>
       <c r="E31">
-        <f>D18*D18*10^6*$B$54/($B$59*E18*1000)</f>
+        <f t="shared" si="15"/>
         <v>7.3931201044386432</v>
       </c>
       <c r="G31">
-        <f>G18*1000*$B$51</f>
+        <f t="shared" si="16"/>
         <v>6.9911504424778759</v>
       </c>
       <c r="H31">
-        <f>G18*G18*10^6*$B$54/($B$59*H18*1000)</f>
+        <f t="shared" si="17"/>
         <v>8.8868608414239478</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>6.8584070796460184</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9.2728070175438617</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>6.7699115044247797</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>11.461379821958458</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>5.9734513274336285</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>44.882462686567173</v>
       </c>
       <c r="S31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>6.7256637168141591</v>
       </c>
       <c r="T31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>115.51999999999994</v>
       </c>
       <c r="V31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>6.1946902654867273</v>
       </c>
       <c r="W31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>539.00000000000387</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>3.7168141592920367</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>7.7616000000000058</v>
       </c>
     </row>
@@ -7161,295 +7165,295 @@
         <v>5.6630357142857148</v>
       </c>
       <c r="D32">
-        <f>D19*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>6.1061946902654878</v>
       </c>
       <c r="E32">
-        <f>D19*D19*10^6*$B$54/($B$59*E19*1000)</f>
+        <f t="shared" si="15"/>
         <v>8.0570769230769272</v>
       </c>
       <c r="G32">
-        <f>G19*1000*$B$51</f>
+        <f t="shared" si="16"/>
         <v>6.504424778761063</v>
       </c>
       <c r="H32">
-        <f>G19*G19*10^6*$B$54/($B$59*H19*1000)</f>
+        <f t="shared" si="17"/>
         <v>9.4826728723404301</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>6.6371681415929205</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9.5806451612903203</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>6.3716814159292054</v>
       </c>
       <c r="N32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>12.329513513513518</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>6.7699115044247797</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>74.278557692307771</v>
       </c>
       <c r="S32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>6.3716814159292054</v>
       </c>
       <c r="T32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>106.91999999999994</v>
       </c>
       <c r="V32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>5.2654867256637186</v>
       </c>
       <c r="W32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>359.47153846153651</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>3.2743362831858418</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>8.6463157894736895</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33">
-        <f>D20*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>6.4159292035398243</v>
       </c>
       <c r="E33">
-        <f>D20*D20*10^6*$B$54/($B$59*E20*1000)</f>
+        <f t="shared" si="15"/>
         <v>8.5131901840490816</v>
       </c>
       <c r="G33">
-        <f>G20*1000*$B$51</f>
+        <f t="shared" si="16"/>
         <v>6.3274336283185848</v>
       </c>
       <c r="H33">
-        <f>G20*G20*10^6*$B$54/($B$59*H20*1000)</f>
+        <f t="shared" si="17"/>
         <v>9.4910970464135058</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>6.4159292035398243</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9.1897350993377493</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>5.4424778761061949</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>12.934119170984452</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>7.3451327433628331</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>93.747216494845304</v>
       </c>
       <c r="S33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>5.2654867256637186</v>
       </c>
       <c r="T33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>76.608688524590278</v>
       </c>
       <c r="V33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>4.3805309734513287</v>
       </c>
       <c r="W33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>269.52750000000185</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>2.7433628318584073</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>6.9698901098901098</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34">
-        <f>D21*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>6.5486725663716809</v>
       </c>
       <c r="E34">
-        <f>D21*D21*10^6*$B$54/($B$59*E21*1000)</f>
+        <f t="shared" si="15"/>
         <v>8.6878846153846148</v>
       </c>
       <c r="G34">
-        <f>G21*1000*$B$51</f>
+        <f t="shared" si="16"/>
         <v>6.0176991150442491</v>
       </c>
       <c r="H34">
-        <f>G21*G21*10^6*$B$54/($B$59*H21*1000)</f>
+        <f t="shared" si="17"/>
         <v>9.1922891566265061</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>6.1946902654867273</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9.4011627906976791</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>5.884955752212389</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>13.931670644391406</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>7.7433628318584073</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>112.29166666666661</v>
       </c>
       <c r="S34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>4.5132743362831862</v>
       </c>
       <c r="T34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>61.309285714285657</v>
       </c>
       <c r="V34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>3.5398230088495586</v>
       </c>
       <c r="W34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>176.00000000000125</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35">
-        <f>D22*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>6.8584070796460184</v>
       </c>
       <c r="E35">
-        <f>D22*D22*10^6*$B$54/($B$59*E22*1000)</f>
+        <f t="shared" si="15"/>
         <v>8.7219471947194744</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>5.9734513274336285</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9.456367924528303</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>4.8672566371681416</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>13.178217821782178</v>
       </c>
       <c r="S35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>3.5398230088495586</v>
       </c>
       <c r="T35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>37.714285714285708</v>
       </c>
       <c r="V35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>3.0973451327433636</v>
       </c>
       <c r="W35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>134.75000000000097</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36">
-        <f>D23*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>6.9469026548672579</v>
       </c>
       <c r="E36">
-        <f>D23*D23*10^6*$B$54/($B$59*E23*1000)</f>
+        <f t="shared" si="15"/>
         <v>8.134170000000001</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>5.3539823008849554</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>7.0225726744186039</v>
       </c>
       <c r="S36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>2.9646017699115039</v>
       </c>
       <c r="T36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>26.453035714285683</v>
       </c>
       <c r="V36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>2.1681415929203549</v>
       </c>
       <c r="W36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>66.027500000000487</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37">
-        <f>D24*1000*$B$51</f>
+        <f t="shared" si="14"/>
         <v>6.6814159292035411</v>
       </c>
       <c r="E37">
-        <f>D24*D24*10^6*$B$54/($B$59*E24*1000)</f>
+        <f t="shared" si="15"/>
         <v>9.0111736526946142</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>5.0884955752212413</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>6.6325987841945331</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>4.9115044247787623</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>6.9981583476764229</v>
       </c>
     </row>
@@ -7458,7 +7462,7 @@
         <v>10</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>5.7522123893805315</v>
       </c>
       <c r="K39">
@@ -7586,6 +7590,9 @@
       <c r="B58">
         <f>B50/B51</f>
         <v>0.10044444444444445</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_process/data.xlsx
+++ b/data_process/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chua's_curcuit\data_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B59E08-501D-4BC0-939B-6359E280AC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B590A6-B962-49E7-BC15-CF75D36BF77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>Переход БПЦ к ДПА</t>
   </si>
@@ -142,13 +142,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>m1</t>
-  </si>
-  <si>
     <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
   </si>
   <si>
     <t>m0/m1</t>
@@ -157,13 +151,34 @@
     <t>L_coef</t>
   </si>
   <si>
-    <t>В лог масштабе с пересчитныыми значениями</t>
+    <t>БПЦ к ДПА</t>
   </si>
   <si>
-    <t>В исходных переменных R-RL</t>
+    <t>ДПА к АР</t>
   </si>
   <si>
-    <t>тут минус ещё</t>
+    <t>АР к МПЦ</t>
+  </si>
+  <si>
+    <t>МПЦ к точке</t>
+  </si>
+  <si>
+    <t>Симуляция</t>
+  </si>
+  <si>
+    <t>Точка к МПЦ</t>
+  </si>
+  <si>
+    <t>БПЦ к МПЦ</t>
+  </si>
+  <si>
+    <t>Переход в финальный БПЦ</t>
+  </si>
+  <si>
+    <t>Теория</t>
+  </si>
+  <si>
+    <t>Эксперимент</t>
   </si>
 </sst>
 </file>
@@ -296,7 +311,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$A$16:$A$19</c:f>
+              <c:f>'Состояние системы'!$A$18:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -304,20 +319,20 @@
                   <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.2200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$B$16:$B$19</c:f>
+              <c:f>'Состояние системы'!$B$18:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -325,13 +340,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9600000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +354,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000000-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -373,7 +388,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$D$16:$D$24</c:f>
+              <c:f>'Состояние системы'!$C$18:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -409,7 +424,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$E$16:$E$24</c:f>
+              <c:f>'Состояние системы'!$D$18:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -446,7 +461,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000001-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -454,7 +469,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Ар к ДПЦ</c:v>
+            <c:v>АР к ДПЦ</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -480,7 +495,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$G$16:$G$21</c:f>
+              <c:f>'Состояние системы'!$E$18:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -507,7 +522,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$H$16:$H$21</c:f>
+              <c:f>'Состояние системы'!$F$18:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -535,7 +550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000002-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,7 +584,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$J$16:$J$26</c:f>
+              <c:f>'Состояние системы'!$G$18:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -611,7 +626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$K$16:$K$26</c:f>
+              <c:f>'Состояние системы'!$H$18:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -654,7 +669,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000003-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -688,7 +703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$M$16:$M$22</c:f>
+              <c:f>'Состояние системы'!$I$18:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -718,7 +733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$N$16:$N$22</c:f>
+              <c:f>'Состояние системы'!$J$18:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -749,7 +764,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000004-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -783,7 +798,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$P$16:$P$21</c:f>
+              <c:f>'Состояние системы'!$K$18:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -810,7 +825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$Q$16:$Q$21</c:f>
+              <c:f>'Состояние системы'!$L$18:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -838,7 +853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000005-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -876,7 +891,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$S$16:$S$23</c:f>
+              <c:f>'Состояние системы'!$M$18:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -909,7 +924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$T$16:$T$23</c:f>
+              <c:f>'Состояние системы'!$N$18:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -943,7 +958,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000006-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -981,7 +996,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$V$16:$V$23</c:f>
+              <c:f>'Состояние системы'!$O$18:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1014,7 +1029,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$W$16:$W$23</c:f>
+              <c:f>'Состояние системы'!$P$18:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1048,7 +1063,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000007-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1086,7 +1101,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$Y$16:$Y$20</c:f>
+              <c:f>'Состояние системы'!$Q$18:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1110,7 +1125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$Z$16:$Z$20</c:f>
+              <c:f>'Состояние системы'!$R$18:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1135,7 +1150,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-69F9-4EDB-B36F-E32197596133}"/>
+              <c16:uniqueId val="{00000008-F38B-4FF7-969C-E1C5A1267E02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1147,11 +1162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1459203872"/>
-        <c:axId val="1459204352"/>
+        <c:axId val="1921234191"/>
+        <c:axId val="1921222671"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1459203872"/>
+        <c:axId val="1921234191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,12 +1223,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1459204352"/>
+        <c:crossAx val="1921222671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1459204352"/>
+        <c:axId val="1921222671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1285,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1459203872"/>
+        <c:crossAx val="1921234191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1350,7 +1365,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>БПЦ к ДПА</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>БПЦ к ДПА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1376,42 +1399,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$A$29:$A$32</c:f>
+              <c:f>'Состояние системы'!$U$4:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.7522123893805315</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3982300884955761</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6194690265486722</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4867256637168147</c:v>
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$B$29:$B$32</c:f>
+              <c:f>'Состояние системы'!$V$4:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.5770000000000017</c:v>
+                  <c:v>9.7100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7447017543859653</c:v>
+                  <c:v>8.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8170163934426222</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6630357142857148</c:v>
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1502,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000000-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1427,7 +1510,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ДПА к АР</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ДПА к АР</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1453,72 +1544,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$D$29:$D$37</c:f>
+              <c:f>'Состояние системы'!$W$4:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>5.6194690265486722</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4867256637168147</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7964601769911503</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1061946902654878</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4159292035398243</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5486725663716809</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8584070796460184</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9469026548672579</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6814159292035411</c:v>
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$E$29:$E$37</c:f>
+              <c:f>'Состояние системы'!$X$4:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.7119419924337951</c:v>
+                  <c:v>8.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5387628865979393</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3931201044386432</c:v>
+                  <c:v>6.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0570769230769272</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5131901840490816</c:v>
+                  <c:v>6.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6878846153846148</c:v>
+                  <c:v>5.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7219471947194744</c:v>
+                  <c:v>5.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.134170000000001</c:v>
+                  <c:v>5.37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0111736526946142</c:v>
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1665,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000001-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1534,7 +1673,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>АР к ДПЦ</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>АР к МПЦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1560,54 +1707,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$G$29:$G$34</c:f>
+              <c:f>'Состояние системы'!$Y$4:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.7256637168141591</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2123893805309747</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9911504424778759</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.504424778761063</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3274336283185848</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0176991150442491</c:v>
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$H$29:$H$34</c:f>
+              <c:f>'Состояние системы'!$Z$4:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10.13872340425532</c:v>
+                  <c:v>7.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7677700000000023</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8868608414239478</c:v>
+                  <c:v>6.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4826728723404301</c:v>
+                  <c:v>5.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4910970464135058</c:v>
+                  <c:v>5.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1922891566265061</c:v>
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,7 +1828,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000002-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1623,7 +1836,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>ДПЦ к МПЦ</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>МПЦ к точке</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1649,84 +1870,186 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$J$29:$J$39</c:f>
+              <c:f>'Состояние системы'!$AA$4:$AA$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>7.2566371681415935</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9911504424778759</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8584070796460184</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6371681415929205</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4159292035398243</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1946902654867273</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9734513274336285</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3539823008849554</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0884955752212413</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9115044247787623</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7522123893805315</c:v>
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$K$29:$K$39</c:f>
+              <c:f>'Состояние системы'!$AB$4:$AB$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>8.8756799999999991</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1738530066815152</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2728070175438617</c:v>
+                  <c:v>5.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5806451612903203</c:v>
+                  <c:v>4.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1897350993377493</c:v>
+                  <c:v>4.3499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4011627906976791</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.456367924528303</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0225726744186039</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6325987841945331</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9981583476764229</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7891061452513997</c:v>
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,7 +2057,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000003-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1742,7 +2065,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>МПЦ к точке</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Точка к МПЦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1768,60 +2099,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$M$29:$M$35</c:f>
+              <c:f>'Состояние системы'!$AC$4:$AC$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7.5221238938053103</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1238938053097351</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7699115044247797</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3716814159292054</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4424778761061949</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.884955752212389</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8672566371681416</c:v>
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$N$29:$N$35</c:f>
+              <c:f>'Состояние системы'!$AD$4:$AD$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>9.536999999999999</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.030843881856546</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.461379821958458</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.329513513513518</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.934119170984452</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.931670644391406</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.178217821782178</c:v>
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,7 +2226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000004-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1837,7 +2234,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>точка к МПЦ</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>БПЦ к МПЦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1863,64 +2268,128 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$P$29:$P$35</c:f>
+              <c:f>'Состояние системы'!$AE$4:$AE$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.4601769911504423</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1769911504424799</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9734513274336285</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7699115044247797</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3451327433628331</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7433628318584073</c:v>
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$Q$29:$Q$34</c:f>
+              <c:f>'Состояние системы'!$AF$4:$AF$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>61.704210526315734</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.018372093023302</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.882462686567173</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.278557692307771</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.747216494845304</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.29166666666661</c:v>
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000005-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1928,7 +2397,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>МПЦ к БПЦ</c:v>
+            <c:strRef>
+              <c:f>'Состояние системы'!$AG$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Переход в финальный БПЦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1958,155 +2435,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$S$29:$S$36</c:f>
+              <c:f>'Состояние системы'!$AG$4:$AG$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.7433628318584073</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2566371681415935</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7256637168141591</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3716814159292054</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2654867256637186</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5132743362831862</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5398230088495586</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9646017699115039</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$T$29:$T$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>136.57094594594588</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>132.47283582089554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>115.51999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106.91999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.608688524590278</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61.309285714285657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.714285714285708</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.453035714285683</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-077A-41A4-8F5C-9D10FFF15E99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>БПЦ к МПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$Y$29:$Y$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.6460176991150455</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2035398230088505</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7168141592920367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2743362831858418</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7433628318584073</c:v>
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Состояние системы'!$Z$29:$Z$33</c:f>
+              <c:f>'Состояние системы'!$AH$4:$AH$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.909239130434786</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3951104100946381</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7616000000000058</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6463157894736895</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9698901098901098</c:v>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,112 +2550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-077A-41A4-8F5C-9D10FFF15E99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>БПЦ к МПЦ2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$V$29:$V$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7.5221238938053103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0796460176991154</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1946902654867273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2654867256637186</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3805309734513287</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5398230088495586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0973451327433636</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1681415929203549</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$W$29:$W$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>794.75000000000523</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>704.00000000000477</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>539.00000000000387</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>359.47153846153651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>269.52750000000185</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>176.00000000000125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>134.75000000000097</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66.027500000000487</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-077A-41A4-8F5C-9D10FFF15E99}"/>
+              <c16:uniqueId val="{00000006-9164-4FBC-9ED9-62574478644F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2231,16 +2562,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1309347504"/>
-        <c:axId val="1309350384"/>
-        <c:extLst/>
+        <c:axId val="1921237551"/>
+        <c:axId val="1921239471"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1309347504"/>
+        <c:axId val="1921237551"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2295,16 +2623,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309350384"/>
+        <c:crossAx val="1921239471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1309350384"/>
+        <c:axId val="1921239471"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2359,7 +2685,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309347504"/>
+        <c:crossAx val="1921237551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5423,22 +5749,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>338667</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>141816</xdr:rowOff>
+      <xdr:colOff>69231</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F35A4D-A4A2-4650-362F-6EA1A36DC887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BB6D6D-760F-F2C4-1B39-5D424E13D684}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5458,29 +5784,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>670561</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>825826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>509301</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>121790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A301180-66C9-4C79-89C8-EC375DC4846B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98846993-E7EF-93F9-5B9C-AA9B29BB421A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5780,54 +6104,63 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5836,10 +6169,16 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -5848,1655 +6187,1926 @@
       <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>9</v>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.4</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
+      <c r="C3" s="1">
+        <v>3.43</v>
+      </c>
       <c r="D3" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.86</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3.43</v>
       </c>
-      <c r="E3" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="B4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6.83</v>
+      </c>
+      <c r="U4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V4">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="W4">
+        <v>2.15</v>
+      </c>
+      <c r="X4">
+        <v>8.41</v>
+      </c>
+      <c r="Y4">
+        <v>2.15</v>
+      </c>
+      <c r="Z4">
+        <v>7.54</v>
+      </c>
+      <c r="AA4">
+        <v>2.15</v>
+      </c>
+      <c r="AB4">
+        <v>6.67</v>
+      </c>
+      <c r="AC4">
+        <v>2.15</v>
+      </c>
+      <c r="AD4">
+        <v>1.89</v>
+      </c>
+      <c r="AE4">
+        <v>1.27</v>
+      </c>
+      <c r="AF4">
+        <v>4.5</v>
+      </c>
+      <c r="AG4">
+        <v>1.23</v>
+      </c>
+      <c r="AH4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.66</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.18</v>
       </c>
-      <c r="H3" s="1">
+      <c r="N5" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="R5" s="1">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>1.96</v>
+      </c>
+      <c r="V5">
+        <v>8.99</v>
+      </c>
+      <c r="W5">
+        <v>2.11</v>
+      </c>
+      <c r="X5">
+        <v>7.68</v>
+      </c>
+      <c r="Y5">
+        <v>2.11</v>
+      </c>
+      <c r="Z5">
+        <v>7.25</v>
+      </c>
+      <c r="AA5">
+        <v>2.11</v>
+      </c>
+      <c r="AB5">
+        <v>5.8</v>
+      </c>
+      <c r="AC5">
+        <v>2.11</v>
+      </c>
+      <c r="AD5">
+        <v>1.89</v>
+      </c>
+      <c r="AE5">
+        <v>1.23</v>
+      </c>
+      <c r="AF5">
+        <v>3.34</v>
+      </c>
+      <c r="AG5">
+        <v>1.18</v>
+      </c>
+      <c r="AH5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="F6" s="1">
         <v>2.48</v>
       </c>
-      <c r="J3" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3.24</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>8.86</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2.95</v>
-      </c>
-      <c r="T3" s="1">
-        <v>9.26</v>
-      </c>
-      <c r="V3" s="1">
-        <v>3</v>
-      </c>
-      <c r="W3" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>3.65</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3.48</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3.09</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3.53</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="S4" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="T4" s="1">
-        <v>9.33</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3.43</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.39</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.34</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="G6" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="K6" s="1">
         <v>3.17</v>
       </c>
-      <c r="N5" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>8.66</v>
-      </c>
-      <c r="S5" s="1">
-        <v>3.18</v>
-      </c>
-      <c r="T5" s="1">
-        <v>9.34</v>
-      </c>
-      <c r="V5" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="W5" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>3.86</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.23</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.25</v>
+      <c r="L6" s="1">
+        <v>8.9600000000000009</v>
       </c>
       <c r="M6" s="1">
         <v>3.26</v>
       </c>
       <c r="N6" s="1">
-        <v>4.45</v>
+        <v>9.36</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.51</v>
       </c>
       <c r="P6" s="1">
-        <v>3.17</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="S6" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="T6" s="1">
-        <v>9.36</v>
-      </c>
-      <c r="V6" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7.91</v>
+      </c>
+      <c r="U6">
+        <v>1.91</v>
+      </c>
+      <c r="V6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W6">
+        <v>2.06</v>
+      </c>
+      <c r="X6">
+        <v>6.96</v>
+      </c>
+      <c r="Y6">
+        <v>2.06</v>
+      </c>
+      <c r="Z6">
+        <v>6.53</v>
+      </c>
+      <c r="AA6">
+        <v>2.06</v>
+      </c>
+      <c r="AB6">
+        <v>5.22</v>
+      </c>
+      <c r="AC6">
+        <v>2.06</v>
+      </c>
+      <c r="AD6">
+        <v>1.75</v>
+      </c>
+      <c r="AE6">
+        <v>1.18</v>
+      </c>
+      <c r="AF6">
+        <v>2.62</v>
+      </c>
+      <c r="AG6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="M7" s="1">
         <v>3.51</v>
       </c>
-      <c r="W6" s="1">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>3.96</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>7.91</v>
+      <c r="N7" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="R7" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="U7">
+        <v>1.86</v>
+      </c>
+      <c r="V7">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="W7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X7">
+        <v>6.67</v>
+      </c>
+      <c r="Y7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Z7">
+        <v>5.95</v>
+      </c>
+      <c r="AA7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>4.79</v>
+      </c>
+      <c r="AC7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>1.75</v>
+      </c>
+      <c r="AE7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>2.33</v>
+      </c>
+      <c r="AG7">
+        <v>1.08</v>
+      </c>
+      <c r="AH7">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.85</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.27</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.47</v>
-      </c>
-      <c r="N7" s="1">
-        <v>6.14</v>
-      </c>
-      <c r="P7" s="1">
-        <v>3.04</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="S7" s="1">
-        <v>3.51</v>
-      </c>
-      <c r="T7" s="1">
-        <v>9.39</v>
-      </c>
-      <c r="V7" s="1">
-        <v>3.71</v>
-      </c>
-      <c r="W7" s="1">
+    <row r="8" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="N8" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P8" s="1">
         <v>9.8800000000000008</v>
       </c>
-      <c r="Y7" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>8.18</v>
+      <c r="U8">
+        <v>1.81</v>
+      </c>
+      <c r="V8">
+        <v>7.68</v>
+      </c>
+      <c r="W8">
+        <v>1.96</v>
+      </c>
+      <c r="X8">
+        <v>6.38</v>
+      </c>
+      <c r="Y8">
+        <v>1.96</v>
+      </c>
+      <c r="Z8">
+        <v>5.37</v>
+      </c>
+      <c r="AA8">
+        <v>1.96</v>
+      </c>
+      <c r="AB8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>1.96</v>
+      </c>
+      <c r="AD8">
+        <v>1.6</v>
+      </c>
+      <c r="AE8">
+        <v>1.08</v>
+      </c>
+      <c r="AF8">
+        <v>1.89</v>
+      </c>
+      <c r="AG8">
+        <v>1.03</v>
+      </c>
+      <c r="AH8">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="G8" s="1">
+    <row r="9" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="U9">
+        <v>1.76</v>
+      </c>
+      <c r="V9">
+        <v>7.39</v>
+      </c>
+      <c r="W9">
+        <v>1.91</v>
+      </c>
+      <c r="X9">
+        <v>5.95</v>
+      </c>
+      <c r="Y9">
+        <v>1.91</v>
+      </c>
+      <c r="Z9">
+        <v>4.93</v>
+      </c>
+      <c r="AA9">
+        <v>1.91</v>
+      </c>
+      <c r="AB9">
+        <v>3.92</v>
+      </c>
+      <c r="AC9">
+        <v>1.91</v>
+      </c>
+      <c r="AD9">
+        <v>1.46</v>
+      </c>
+      <c r="AE9">
+        <v>1.03</v>
+      </c>
+      <c r="AF9">
+        <v>1.75</v>
+      </c>
+      <c r="AG9">
+        <v>0.98</v>
+      </c>
+      <c r="AH9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="U10">
+        <v>1.71</v>
+      </c>
+      <c r="V10">
+        <v>7.1</v>
+      </c>
+      <c r="W10">
+        <v>1.86</v>
+      </c>
+      <c r="X10">
+        <v>5.66</v>
+      </c>
+      <c r="Y10">
+        <v>1.86</v>
+      </c>
+      <c r="Z10">
+        <v>5.08</v>
+      </c>
+      <c r="AA10">
+        <v>1.86</v>
+      </c>
+      <c r="AB10">
+        <v>3.63</v>
+      </c>
+      <c r="AC10">
+        <v>1.86</v>
+      </c>
+      <c r="AD10">
+        <v>1.31</v>
+      </c>
+      <c r="AE10">
+        <v>0.98</v>
+      </c>
+      <c r="AF10">
+        <v>1.46</v>
+      </c>
+      <c r="AG10">
+        <v>0.88</v>
+      </c>
+      <c r="AH10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="U11">
+        <v>1.67</v>
+      </c>
+      <c r="V11">
+        <v>6.81</v>
+      </c>
+      <c r="W11">
+        <v>1.81</v>
+      </c>
+      <c r="X11">
+        <v>5.37</v>
+      </c>
+      <c r="Y11">
+        <v>1.81</v>
+      </c>
+      <c r="Z11">
+        <v>4.93</v>
+      </c>
+      <c r="AA11">
+        <v>1.81</v>
+      </c>
+      <c r="AB11">
         <v>3.34</v>
       </c>
-      <c r="H8" s="1">
-        <v>3.36</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3.37</v>
-      </c>
-      <c r="N8" s="1">
-        <v>5.81</v>
-      </c>
-      <c r="P8" s="1">
-        <v>2.95</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>3.68</v>
-      </c>
-      <c r="T8" s="1">
-        <v>9.44</v>
-      </c>
-      <c r="V8" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="W8" s="1">
-        <v>9.8800000000000008</v>
+      <c r="AC11">
+        <v>1.81</v>
+      </c>
+      <c r="AD11">
+        <v>1.31</v>
+      </c>
+      <c r="AE11">
+        <v>0.88</v>
+      </c>
+      <c r="AF11">
+        <v>1.31</v>
+      </c>
+      <c r="AG11">
+        <v>0.84</v>
+      </c>
+      <c r="AH11">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3.64</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="N9" s="1">
-        <v>6.97</v>
-      </c>
-      <c r="S9" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="T9" s="1">
-        <v>9.44</v>
-      </c>
-      <c r="V9" s="1">
+    <row r="12" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="U12">
+        <v>1.62</v>
+      </c>
+      <c r="V12">
+        <v>6.38</v>
+      </c>
+      <c r="W12">
+        <v>1.76</v>
+      </c>
+      <c r="X12">
+        <v>5.08</v>
+      </c>
+      <c r="Y12">
+        <v>1.76</v>
+      </c>
+      <c r="Z12">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AA12">
+        <v>1.76</v>
+      </c>
+      <c r="AB12">
+        <v>3.05</v>
+      </c>
+      <c r="AC12">
+        <v>1.76</v>
+      </c>
+      <c r="AD12">
+        <v>1.17</v>
+      </c>
+      <c r="AE12">
+        <v>0.84</v>
+      </c>
+      <c r="AF12">
+        <v>1.17</v>
+      </c>
+      <c r="AG12">
+        <v>0.79</v>
+      </c>
+      <c r="AH12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="U13">
+        <v>1.57</v>
+      </c>
+      <c r="V13">
+        <v>6.09</v>
+      </c>
+      <c r="W13">
+        <v>1.71</v>
+      </c>
+      <c r="X13">
+        <v>4.93</v>
+      </c>
+      <c r="Y13">
+        <v>1.71</v>
+      </c>
+      <c r="Z13">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AA13">
+        <v>1.71</v>
+      </c>
+      <c r="AB13">
+        <v>2.91</v>
+      </c>
+      <c r="AC13">
+        <v>1.71</v>
+      </c>
+      <c r="AD13">
+        <v>1.17</v>
+      </c>
+      <c r="AE13">
+        <v>0.79</v>
+      </c>
+      <c r="AF13">
+        <v>1.02</v>
+      </c>
+      <c r="AG13">
+        <v>0.74</v>
+      </c>
+      <c r="AH13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>1.52</v>
+      </c>
+      <c r="V14">
+        <v>5.95</v>
+      </c>
+      <c r="W14">
+        <v>1.67</v>
+      </c>
+      <c r="X14">
+        <v>4.79</v>
+      </c>
+      <c r="Y14">
+        <v>1.67</v>
+      </c>
+      <c r="Z14">
+        <v>4.21</v>
+      </c>
+      <c r="AA14">
+        <v>1.67</v>
+      </c>
+      <c r="AB14">
+        <v>2.62</v>
+      </c>
+      <c r="AC14">
+        <v>1.67</v>
+      </c>
+      <c r="AD14">
+        <v>1.02</v>
+      </c>
+      <c r="AE14">
+        <v>0.74</v>
+      </c>
+      <c r="AF14">
+        <v>0.88</v>
+      </c>
+      <c r="AG14">
+        <v>0.69</v>
+      </c>
+      <c r="AH14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15">
+        <v>1.47</v>
+      </c>
+      <c r="V15">
+        <v>5.66</v>
+      </c>
+      <c r="W15">
+        <v>1.62</v>
+      </c>
+      <c r="X15">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Y15">
+        <v>1.62</v>
+      </c>
+      <c r="Z15">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AA15">
+        <v>1.62</v>
+      </c>
+      <c r="AB15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AC15">
+        <v>1.62</v>
+      </c>
+      <c r="AD15">
+        <v>1.02</v>
+      </c>
+      <c r="AE15">
+        <v>0.69</v>
+      </c>
+      <c r="AF15">
+        <v>0.73</v>
+      </c>
+      <c r="AG15">
+        <v>0.64</v>
+      </c>
+      <c r="AH15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="1">
-        <v>9.8800000000000008</v>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>1.42</v>
+      </c>
+      <c r="V16">
+        <v>5.51</v>
+      </c>
+      <c r="W16">
+        <v>1.57</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.57</v>
+      </c>
+      <c r="Z16">
+        <v>3.92</v>
+      </c>
+      <c r="AA16">
+        <v>1.57</v>
+      </c>
+      <c r="AB16">
+        <v>2.33</v>
+      </c>
+      <c r="AC16">
+        <v>1.57</v>
+      </c>
+      <c r="AD16">
+        <v>1.31</v>
+      </c>
+      <c r="AE16">
+        <v>0.64</v>
+      </c>
+      <c r="AF16">
+        <v>0.59</v>
+      </c>
+      <c r="AG16">
+        <v>0.59</v>
+      </c>
+      <c r="AH16">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>3.13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3.49</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="S10" s="1">
-        <v>4.03</v>
-      </c>
-      <c r="T10" s="1">
-        <v>9.44</v>
-      </c>
-      <c r="V10" s="1">
-        <v>4.21</v>
-      </c>
-      <c r="W10" s="1">
-        <v>9.8800000000000008</v>
+    <row r="17" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17">
+        <v>1.37</v>
+      </c>
+      <c r="V17">
+        <v>5.37</v>
+      </c>
+      <c r="W17">
+        <v>1.52</v>
+      </c>
+      <c r="X17">
+        <v>4.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.52</v>
+      </c>
+      <c r="Z17">
+        <v>3.92</v>
+      </c>
+      <c r="AA17">
+        <v>1.52</v>
+      </c>
+      <c r="AB17">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AC17">
+        <v>1.52</v>
+      </c>
+      <c r="AD17">
+        <v>1.17</v>
+      </c>
+      <c r="AE17">
+        <v>0.59</v>
+      </c>
+      <c r="AF17">
+        <v>0.73</v>
+      </c>
+      <c r="AG17">
+        <v>0.54</v>
+      </c>
+      <c r="AH17">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>3.19</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3.55</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="J12" s="1">
-        <v>3.59</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="J13" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="18" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <f>$B$47-A3</f>
         <v>1.3000000000000003</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <f>$B$46-B3</f>
         <v>10</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" ref="D16:D24" si="0">$B$47-D3</f>
+      <c r="C18" s="1">
+        <f>$B$47-C3</f>
         <v>1.27</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:E24" si="1">$B$46-E3</f>
+      <c r="D18" s="1">
+        <f>$B$46-D3</f>
         <v>7.93</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" ref="G16:G21" si="2">$B$47-G3</f>
+      <c r="E18" s="1">
+        <f>$B$47-E3</f>
         <v>1.52</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" ref="H16:H21" si="3">$B$46-H3</f>
+      <c r="F18" s="1">
+        <f>$B$46-F3</f>
         <v>7.52</v>
       </c>
-      <c r="J16" s="1">
-        <f t="shared" ref="J16:J26" si="4">$B$47-J3</f>
+      <c r="G18" s="1">
+        <f>$B$47-G3</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="K16" s="1">
-        <f t="shared" ref="K16:K26" si="5">$B$46-K3</f>
+      <c r="H18" s="1">
+        <f>$B$46-H3</f>
         <v>10</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" ref="M16:M22" si="6">$B$47-M3</f>
+      <c r="I18" s="1">
+        <f>$B$47-I3</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" ref="N16:N22" si="7">$B$46-N3</f>
+      <c r="J18" s="1">
+        <f>$B$46-J3</f>
         <v>10</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" ref="P16:P21" si="8">$B$47-P3</f>
+      <c r="K18" s="1">
+        <f>$B$47-K3</f>
         <v>1.46</v>
       </c>
-      <c r="Q16" s="1">
-        <f t="shared" ref="Q16:Q21" si="9">$B$46-Q3</f>
+      <c r="L18" s="1">
+        <f>$B$46-L3</f>
         <v>1.1400000000000006</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" ref="S16:S23" si="10">$B$47-S3</f>
+      <c r="M18" s="1">
+        <f>$B$47-M3</f>
         <v>1.75</v>
       </c>
-      <c r="T16" s="1">
-        <f t="shared" ref="T16:T23" si="11">$B$46-T3</f>
+      <c r="N18" s="1">
+        <f>$B$46-N3</f>
         <v>0.74000000000000021</v>
       </c>
-      <c r="V16" s="1">
-        <f t="shared" ref="V16:V23" si="12">$B$47-V3</f>
+      <c r="O18" s="1">
+        <f>$B$47-O3</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16:W23" si="13">$B$46-W3</f>
+      <c r="P18" s="1">
+        <f>$B$46-P3</f>
         <v>0.11999999999999922</v>
       </c>
-      <c r="Y16" s="1">
-        <f>$B$47-Y3</f>
+      <c r="Q18" s="1">
+        <f>$B$47-Q3</f>
         <v>1.0500000000000003</v>
       </c>
-      <c r="Z16" s="1">
-        <f>$B$46-Z3</f>
+      <c r="R18" s="1">
+        <f>$B$46-R3</f>
         <v>4.5999999999999996</v>
       </c>
+      <c r="W18">
+        <v>1.47</v>
+      </c>
+      <c r="X18">
+        <v>4.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.47</v>
+      </c>
+      <c r="Z18">
+        <v>3.92</v>
+      </c>
+      <c r="AA18">
+        <v>1.47</v>
+      </c>
+      <c r="AB18">
+        <v>1.89</v>
+      </c>
+      <c r="AC18">
+        <v>1.47</v>
+      </c>
+      <c r="AD18">
+        <v>1.02</v>
+      </c>
+      <c r="AE18">
+        <v>0.54</v>
+      </c>
+      <c r="AF18">
+        <v>0.44</v>
+      </c>
+      <c r="AG18">
+        <v>0.49</v>
+      </c>
+      <c r="AH18">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f>$B$47-A4</f>
-        <v>1.2200000000000002</v>
-      </c>
-      <c r="B17" s="1">
-        <f>$B$46-B4</f>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="D17" s="1">
+    <row r="19" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" ref="A19:A22" si="0">$B$47-A4</f>
+        <v>1.27</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:B21" si="1">$B$46-B4</f>
+        <v>9.15</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:C26" si="2">$B$47-C4</f>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:D26" si="3">$B$46-D4</f>
+        <v>7.76</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E23" si="4">$B$47-E4</f>
+        <v>1.6300000000000003</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F24" si="5">$B$46-F4</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19:G28" si="6">$B$47-G4</f>
+        <v>1.58</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:H29" si="7">$B$46-H4</f>
+        <v>8.98</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19:I25" si="8">$B$47-I4</f>
+        <v>1.6100000000000003</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:J24" si="9">$B$46-J4</f>
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ref="K19:K25" si="10">$B$47-K4</f>
+        <v>1.1700000000000004</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19:L23" si="11">$B$46-L4</f>
+        <v>1.2899999999999991</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ref="M19:M25" si="12">$B$47-M4</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:N25" si="13">$B$46-N4</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ref="O19:O25" si="14">$B$47-O4</f>
+        <v>1.6</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" ref="P19:P25" si="15">$B$46-P4</f>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ref="Q19:Q22" si="16">$B$47-Q4</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" ref="R19:R22" si="17">$B$46-R4</f>
+        <v>3.17</v>
+      </c>
+      <c r="W19">
+        <v>1.42</v>
+      </c>
+      <c r="X19">
+        <v>4.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.42</v>
+      </c>
+      <c r="Z19">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AA19">
+        <v>1.42</v>
+      </c>
+      <c r="AB19">
+        <v>1.89</v>
+      </c>
+      <c r="AC19">
+        <v>1.42</v>
+      </c>
+      <c r="AD19">
+        <v>1.02</v>
+      </c>
+      <c r="AE19">
+        <v>0.49</v>
+      </c>
+      <c r="AF19">
+        <v>0.3</v>
+      </c>
+      <c r="AG19">
+        <v>0.44</v>
+      </c>
+      <c r="AH19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1.2400000000000002</v>
       </c>
-      <c r="E17" s="1">
+      <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>7.76</v>
-      </c>
-      <c r="G17" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C20" s="1">
         <f t="shared" si="2"/>
-        <v>1.6300000000000003</v>
-      </c>
-      <c r="H17" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>7.66</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>1.58</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>9.27</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="7"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="9"/>
+        <v>6.74</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="10"/>
+        <v>1.35</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="11"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="12"/>
+        <v>1.52</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="13"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="16"/>
+        <v>0.8400000000000003</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>1.37</v>
+      </c>
+      <c r="X20">
+        <v>4.79</v>
+      </c>
+      <c r="Y20">
+        <v>1.37</v>
+      </c>
+      <c r="Z20">
+        <v>4.21</v>
+      </c>
+      <c r="AA20">
+        <v>1.37</v>
+      </c>
+      <c r="AB20">
+        <v>1.75</v>
+      </c>
+      <c r="AC20">
+        <v>1.37</v>
+      </c>
+      <c r="AD20">
+        <v>1.17</v>
+      </c>
+      <c r="AE20">
+        <v>0.44</v>
+      </c>
+      <c r="AF20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3800000000000003</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
+        <v>7.52</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>7.75</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="9"/>
+        <v>5.55</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="10"/>
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0399999999999991</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="13"/>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="14"/>
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="15"/>
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="16"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="17"/>
+        <v>2.09</v>
+      </c>
+      <c r="AA21">
+        <v>1.27</v>
+      </c>
+      <c r="AB21">
+        <v>3.63</v>
+      </c>
+      <c r="AC21">
+        <v>1.27</v>
+      </c>
+      <c r="AD21">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>8.15</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.55</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="8"/>
+        <v>1.23</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8600000000000003</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="11"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="12"/>
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="13"/>
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="14"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="16"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="17"/>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="AA22">
+        <v>1.23</v>
+      </c>
+      <c r="AB22">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.48</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>8.32</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="7"/>
+        <v>6.88</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="8"/>
+        <v>1.33</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="10"/>
+        <v>1.75</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="12"/>
+        <v>1.02</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="14"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="AA23">
+        <v>1.18</v>
+      </c>
+      <c r="AB23">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>9.09</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="M24" s="1">
+        <f t="shared" si="12"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="14"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="AA24">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AB24">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J17" s="1">
-        <f t="shared" si="4"/>
-        <v>1.58</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>8.98</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="6"/>
-        <v>1.6100000000000003</v>
-      </c>
-      <c r="N17" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="7"/>
-        <v>7.1099999999999994</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1700000000000004</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2899999999999991</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="10"/>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="11"/>
+        <v>6.88</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="M25" s="1">
+        <f t="shared" si="12"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="V17" s="1">
-        <f t="shared" si="12"/>
-        <v>1.6</v>
-      </c>
-      <c r="W17" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="13"/>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="14"/>
+        <v>0.49000000000000021</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="15"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="Y17" s="1">
-        <f>$B$47-Y4</f>
-        <v>0.95000000000000018</v>
-      </c>
-      <c r="Z17" s="1">
-        <f>$B$46-Z4</f>
-        <v>3.17</v>
+      <c r="AA25">
+        <v>1.08</v>
+      </c>
+      <c r="AB25">
+        <v>1.46</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f>$B$47-A5</f>
-        <v>1.27</v>
-      </c>
-      <c r="B18" s="1">
-        <f>$B$46-B5</f>
-        <v>9.15</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.31</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>7.66</v>
-      </c>
-      <c r="G18" s="1">
+    <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="1">
         <f t="shared" si="2"/>
-        <v>1.58</v>
-      </c>
-      <c r="H18" s="1">
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="3"/>
-        <v>9.27</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5500000000000003</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="5"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="M18" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="6"/>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="N18" s="1">
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="H26" s="1">
+        <f>$B$46-H11</f>
+        <v>6.58</v>
+      </c>
+      <c r="AA26">
+        <v>1.03</v>
+      </c>
+      <c r="AB26">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="G27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="7"/>
-        <v>6.74</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="8"/>
-        <v>1.35</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="10"/>
-        <v>1.52</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" si="11"/>
-        <v>0.66000000000000014</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" si="13"/>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="Y18" s="1">
-        <f>$B$47-Y5</f>
-        <v>0.8400000000000003</v>
-      </c>
-      <c r="Z18" s="1">
-        <f>$B$46-Z5</f>
-        <v>3</v>
+        <v>5.81</v>
+      </c>
+      <c r="AA27">
+        <v>0.98</v>
+      </c>
+      <c r="AB27">
+        <v>1.02</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f>$B$47-A6</f>
-        <v>1.2400000000000002</v>
-      </c>
-      <c r="B19" s="1">
-        <f>$B$46-B6</f>
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3800000000000003</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4700000000000002</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="3"/>
-        <v>7.52</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="5"/>
-        <v>7.75</v>
-      </c>
-      <c r="M19" s="1">
+    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="G28" s="1">
         <f t="shared" si="6"/>
-        <v>1.4400000000000004</v>
-      </c>
-      <c r="N19" s="1">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="7"/>
-        <v>5.55</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0399999999999991</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4400000000000004</v>
-      </c>
-      <c r="T19" s="1">
-        <f t="shared" si="11"/>
-        <v>0.64000000000000057</v>
-      </c>
-      <c r="V19" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1900000000000004</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" si="13"/>
-        <v>0.13000000000000078</v>
-      </c>
-      <c r="Y19" s="1">
-        <f>$B$47-Y6</f>
-        <v>0.74000000000000021</v>
-      </c>
-      <c r="Z19" s="1">
-        <f>$B$46-Z6</f>
-        <v>2.09</v>
+        <v>7.16</v>
+      </c>
+      <c r="AA28">
+        <v>0.88</v>
+      </c>
+      <c r="AB28">
+        <v>0.88</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>8.15</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1099999999999994</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="5"/>
-        <v>7.55</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="6"/>
-        <v>1.23</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8600000000000003</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="8"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="9"/>
-        <v>0.97000000000000064</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1900000000000004</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="11"/>
-        <v>0.60999999999999943</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" si="12"/>
-        <v>0.99000000000000021</v>
-      </c>
-      <c r="W20" s="1">
-        <f t="shared" si="13"/>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="Y20" s="1">
-        <f>$B$47-Y7</f>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="Z20" s="1">
-        <f>$B$46-Z7</f>
-        <v>1.8200000000000003</v>
+    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="AA29">
+        <v>0.84</v>
+      </c>
+      <c r="AB29">
+        <v>0.73</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.48</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>8.32</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3600000000000003</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>6.6400000000000006</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="5"/>
-        <v>6.88</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="6"/>
-        <v>1.33</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="7"/>
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="8"/>
-        <v>1.75</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="9"/>
-        <v>0.90000000000000036</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="10"/>
-        <v>1.02</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="11"/>
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="12"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" si="13"/>
-        <v>0.11999999999999922</v>
+    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA30">
+        <v>0.79</v>
+      </c>
+      <c r="AB30">
+        <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5500000000000003</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>9.09</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="4"/>
-        <v>1.35</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="5"/>
-        <v>6.3599999999999994</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="10"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="11"/>
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="12"/>
-        <v>0.70000000000000018</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" si="13"/>
-        <v>0.11999999999999922</v>
+    <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <v>0.74</v>
+      </c>
+      <c r="AB31">
+        <v>0.59</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5700000000000003</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="4"/>
-        <v>1.21</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="5"/>
-        <v>6.88</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="10"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="11"/>
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="12"/>
-        <v>0.49000000000000021</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" si="13"/>
-        <v>0.11999999999999922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5100000000000002</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>8.35</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1500000000000004</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="5"/>
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1100000000000003</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="5"/>
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="5"/>
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" t="s">
-        <v>41</v>
-      </c>
-      <c r="V28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>A16*1000*$B$51</f>
-        <v>5.7522123893805315</v>
-      </c>
-      <c r="B29">
-        <f>A16*A16*10^6*$B$54/($B$59*B16*1000)</f>
-        <v>5.5770000000000017</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ref="D29:D37" si="14">D16*1000*$B$51</f>
-        <v>5.6194690265486722</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ref="E29:E37" si="15">D16*D16*10^6*$B$54/($B$59*E16*1000)</f>
-        <v>6.7119419924337951</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G34" si="16">G16*1000*$B$51</f>
-        <v>6.7256637168141591</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H34" si="17">G16*G16*10^6*$B$54/($B$59*H16*1000)</f>
-        <v>10.13872340425532</v>
-      </c>
-      <c r="J29">
-        <f>J16*1000*$B$51</f>
-        <v>7.2566371681415935</v>
-      </c>
-      <c r="K29">
-        <f>J16*J16*10^6*$B$54/($B$59*K16*1000)</f>
-        <v>8.8756799999999991</v>
-      </c>
-      <c r="M29">
-        <f>M16*1000*$B$51</f>
-        <v>7.5221238938053103</v>
-      </c>
-      <c r="N29">
-        <f>M16*M16*10^6*$B$54/($B$59*N16*1000)</f>
-        <v>9.536999999999999</v>
-      </c>
-      <c r="P29">
-        <f>P16*1000*$B$51</f>
-        <v>6.4601769911504423</v>
-      </c>
-      <c r="Q29">
-        <f>P16*P16*10^6*$B$54/($B$59*Q16*1000)</f>
-        <v>61.704210526315734</v>
-      </c>
-      <c r="S29">
-        <f>S16*1000*$B$51</f>
-        <v>7.7433628318584073</v>
-      </c>
-      <c r="T29">
-        <f>S16*S16*10^6*$B$54/($B$59*T16*1000)</f>
-        <v>136.57094594594588</v>
-      </c>
-      <c r="V29">
-        <f>V16*1000*$B$51</f>
-        <v>7.5221238938053103</v>
-      </c>
-      <c r="W29">
-        <f>V16*V16*10^6*$B$54/($B$59*W16*1000)</f>
-        <v>794.75000000000523</v>
-      </c>
-      <c r="Y29">
-        <f>Y16*1000*$B$51</f>
-        <v>4.6460176991150455</v>
-      </c>
-      <c r="Z29">
-        <f>Y16*Y16*10^6*$B$54/($B$59*Z16*1000)</f>
-        <v>7.909239130434786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>A17*1000*$B$51</f>
-        <v>5.3982300884955761</v>
-      </c>
-      <c r="B30">
-        <f>A17*A17*10^6*$B$54/($B$59*B17*1000)</f>
-        <v>5.7447017543859653</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="14"/>
-        <v>5.4867256637168147</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="15"/>
-        <v>6.5387628865979393</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="16"/>
-        <v>7.2123893805309747</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="17"/>
-        <v>8.7677700000000023</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30:J39" si="18">J17*1000*$B$51</f>
-        <v>6.9911504424778759</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="K30:K38" si="19">J17*J17*10^6*$B$54/($B$59*K17*1000)</f>
-        <v>9.1738530066815152</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ref="M30:M35" si="20">M17*1000*$B$51</f>
-        <v>7.1238938053097351</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ref="N30:N35" si="21">M17*M17*10^6*$B$54/($B$59*N17*1000)</f>
-        <v>12.030843881856546</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ref="P30:P34" si="22">P17*1000*$B$51</f>
-        <v>5.1769911504424799</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ref="Q30:Q34" si="23">P17*P17*10^6*$B$54/($B$59*Q17*1000)</f>
-        <v>35.018372093023302</v>
-      </c>
-      <c r="S30">
-        <f t="shared" ref="S30:S36" si="24">S17*1000*$B$51</f>
-        <v>7.2566371681415935</v>
-      </c>
-      <c r="T30">
-        <f t="shared" ref="T30:T36" si="25">S17*S17*10^6*$B$54/($B$59*T17*1000)</f>
-        <v>132.47283582089554</v>
-      </c>
-      <c r="V30">
-        <f t="shared" ref="V30:V36" si="26">V17*1000*$B$51</f>
-        <v>7.0796460176991154</v>
-      </c>
-      <c r="W30">
-        <f t="shared" ref="W30:W36" si="27">V17*V17*10^6*$B$54/($B$59*W17*1000)</f>
-        <v>704.00000000000477</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" ref="Y30:Y33" si="28">Y17*1000*$B$51</f>
-        <v>4.2035398230088505</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" ref="Z30:Z33" si="29">Y17*Y17*10^6*$B$54/($B$59*Z17*1000)</f>
-        <v>9.3951104100946381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>A18*1000*$B$51</f>
-        <v>5.6194690265486722</v>
-      </c>
-      <c r="B31">
-        <f>A18*A18*10^6*$B$54/($B$59*B18*1000)</f>
-        <v>5.8170163934426222</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="14"/>
-        <v>5.7964601769911503</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="15"/>
-        <v>7.3931201044386432</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="16"/>
-        <v>6.9911504424778759</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="17"/>
-        <v>8.8868608414239478</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="18"/>
-        <v>6.8584070796460184</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="19"/>
-        <v>9.2728070175438617</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="20"/>
-        <v>6.7699115044247797</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="21"/>
-        <v>11.461379821958458</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="22"/>
-        <v>5.9734513274336285</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="23"/>
-        <v>44.882462686567173</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="24"/>
-        <v>6.7256637168141591</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="25"/>
-        <v>115.51999999999994</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="26"/>
-        <v>6.1946902654867273</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="27"/>
-        <v>539.00000000000387</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="28"/>
-        <v>3.7168141592920367</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="29"/>
-        <v>7.7616000000000058</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>A19*1000*$B$51</f>
-        <v>5.4867256637168147</v>
-      </c>
-      <c r="B32">
-        <f>A19*A19*10^6*$B$54/($B$59*B19*1000)</f>
-        <v>5.6630357142857148</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="14"/>
-        <v>6.1061946902654878</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="15"/>
-        <v>8.0570769230769272</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="16"/>
-        <v>6.504424778761063</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="17"/>
-        <v>9.4826728723404301</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="18"/>
-        <v>6.6371681415929205</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="19"/>
-        <v>9.5806451612903203</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="20"/>
-        <v>6.3716814159292054</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="21"/>
-        <v>12.329513513513518</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="22"/>
-        <v>6.7699115044247797</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="23"/>
-        <v>74.278557692307771</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="24"/>
-        <v>6.3716814159292054</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="25"/>
-        <v>106.91999999999994</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="26"/>
-        <v>5.2654867256637186</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="27"/>
-        <v>359.47153846153651</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="28"/>
-        <v>3.2743362831858418</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="29"/>
-        <v>8.6463157894736895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <f t="shared" si="14"/>
-        <v>6.4159292035398243</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="15"/>
-        <v>8.5131901840490816</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="16"/>
-        <v>6.3274336283185848</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="17"/>
-        <v>9.4910970464135058</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="18"/>
-        <v>6.4159292035398243</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="19"/>
-        <v>9.1897350993377493</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="20"/>
-        <v>5.4424778761061949</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="21"/>
-        <v>12.934119170984452</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="22"/>
-        <v>7.3451327433628331</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="23"/>
-        <v>93.747216494845304</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="24"/>
-        <v>5.2654867256637186</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="25"/>
-        <v>76.608688524590278</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="26"/>
-        <v>4.3805309734513287</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="27"/>
-        <v>269.52750000000185</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="28"/>
-        <v>2.7433628318584073</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="29"/>
-        <v>6.9698901098901098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f t="shared" si="14"/>
-        <v>6.5486725663716809</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="15"/>
-        <v>8.6878846153846148</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="16"/>
-        <v>6.0176991150442491</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="17"/>
-        <v>9.1922891566265061</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="18"/>
-        <v>6.1946902654867273</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="19"/>
-        <v>9.4011627906976791</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="20"/>
-        <v>5.884955752212389</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="21"/>
-        <v>13.931670644391406</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="22"/>
-        <v>7.7433628318584073</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="23"/>
-        <v>112.29166666666661</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="24"/>
-        <v>4.5132743362831862</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="25"/>
-        <v>61.309285714285657</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="26"/>
-        <v>3.5398230088495586</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="27"/>
-        <v>176.00000000000125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <f t="shared" si="14"/>
-        <v>6.8584070796460184</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="15"/>
-        <v>8.7219471947194744</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="18"/>
-        <v>5.9734513274336285</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="19"/>
-        <v>9.456367924528303</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="20"/>
-        <v>4.8672566371681416</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="21"/>
-        <v>13.178217821782178</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="24"/>
-        <v>3.5398230088495586</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="25"/>
-        <v>37.714285714285708</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="26"/>
-        <v>3.0973451327433636</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="27"/>
-        <v>134.75000000000097</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <f t="shared" si="14"/>
-        <v>6.9469026548672579</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="15"/>
-        <v>8.134170000000001</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="18"/>
-        <v>5.3539823008849554</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="19"/>
-        <v>7.0225726744186039</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="24"/>
-        <v>2.9646017699115039</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="25"/>
-        <v>26.453035714285683</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="26"/>
-        <v>2.1681415929203549</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="27"/>
-        <v>66.027500000000487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <f t="shared" si="14"/>
-        <v>6.6814159292035411</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="15"/>
-        <v>9.0111736526946142</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="18"/>
-        <v>5.0884955752212413</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="19"/>
-        <v>6.6325987841945331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J38">
-        <f t="shared" si="18"/>
-        <v>4.9115044247787623</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="19"/>
-        <v>6.9981583476764229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="18"/>
-        <v>5.7522123893805315</v>
-      </c>
-      <c r="K39">
-        <f>J26*J26*10^6*$B$54/($B$59*K26*1000)</f>
-        <v>7.7891061452513997</v>
-      </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E41" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
@@ -7504,7 +8114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
@@ -7512,12 +8122,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -7526,20 +8136,16 @@
         <v>4.4444444444444447E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
       <c r="B51">
-        <f>1/226</f>
-        <v>4.4247787610619468E-3</v>
-      </c>
-      <c r="C51">
         <f>1/-226</f>
         <v>-4.4247787610619468E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -7547,7 +8153,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -7556,7 +8162,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -7565,7 +8171,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -7574,30 +8180,27 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <f>B54/B53</f>
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <f>B50/B51</f>
-        <v>0.10044444444444445</v>
-      </c>
-      <c r="C58" t="s">
-        <v>46</v>
+        <v>-0.10044444444444445</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <f>100*1000*B55/3300</f>
@@ -7618,7 +8221,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data_process/data.xlsx
+++ b/data_process/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chua's_curcuit\data_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B590A6-B962-49E7-BC15-CF75D36BF77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EAC36F-E7CB-4E1B-8BDD-126A3D2788B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Переход БПЦ к ДПА</t>
   </si>
   <si>
     <t>Переход от ДПА к АР</t>
-  </si>
-  <si>
-    <t>Переход от АP к ДПЦ</t>
   </si>
   <si>
     <t>Переход от ДПЦ к МПЦ</t>
@@ -118,9 +115,6 @@
     <t>Diameter</t>
   </si>
   <si>
-    <t>Пересчитанные сопротивления</t>
-  </si>
-  <si>
     <t>Для схемы</t>
   </si>
   <si>
@@ -174,12 +168,6 @@
   <si>
     <t>Переход в финальный БПЦ</t>
   </si>
-  <si>
-    <t>Теория</t>
-  </si>
-  <si>
-    <t>Эксперимент</t>
-  </si>
 </sst>
 </file>
 
@@ -216,12 +204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,6 +238,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -262,1086 +257,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>БПЦ к ДПА</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$A$18:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.3000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2200000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$B$18:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.9600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5500000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ДПА к АР</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$C$18:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5100000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$D$18:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7.93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>АР к ДПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$E$18:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3600000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$F$18:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6400000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>ДПЦ к МПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$G$18:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.6400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$H$18:$H$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.88</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>МПЦ к точке</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$I$18:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$J$18:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0300000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>точка к МПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$K$18:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$L$18:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.1400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97000000000000064</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90000000000000036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>МПЦ к БПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$M$18:$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$N$18:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.74000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5600000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>БПЦ к МПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$O$18:$O$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.7000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49000000000000021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$P$18:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13000000000000078</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11999999999999922</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>БПЦ к МПЦ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$Q$18:$Q$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62000000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Состояние системы'!$R$18:$R$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8200000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-F38B-4FF7-969C-E1C5A1267E02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1921234191"/>
-        <c:axId val="1921222671"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1921234191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1921222671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1921222671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1921234191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2741,7 +1656,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3156,7 +2071,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3640,46 +2555,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5228,572 +4103,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69231</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>4535</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169659</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BB6D6D-760F-F2C4-1B39-5D424E13D684}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>825826</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>16282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>509301</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>121790</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>720968</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5812,7 +4135,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6104,10 +4427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6135,90 +4458,81 @@
         <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" t="s">
         <v>47</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
@@ -6235,88 +4549,82 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="F3" s="1">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.86</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.24</v>
-      </c>
-      <c r="L3" s="1">
-        <v>8.86</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.95</v>
-      </c>
       <c r="N3" s="1">
-        <v>9.26</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="O3" s="1">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="P3" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>3.65</v>
-      </c>
-      <c r="R3" s="1">
         <v>5.4</v>
       </c>
       <c r="U3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
         <v>8</v>
       </c>
-      <c r="V3" t="s">
-        <v>9</v>
-      </c>
       <c r="W3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
         <v>8</v>
       </c>
-      <c r="X3" t="s">
-        <v>9</v>
-      </c>
       <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" t="s">
-        <v>9</v>
-      </c>
       <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" t="s">
-        <v>9</v>
-      </c>
       <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" t="s">
-        <v>9</v>
-      </c>
       <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" t="s">
-        <v>9</v>
-      </c>
       <c r="AG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" t="s">
         <v>8</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
@@ -6333,45 +4641,39 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G4" s="1">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="H4" s="1">
-        <v>1.02</v>
+        <v>2.89</v>
       </c>
       <c r="I4" s="1">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="J4" s="1">
-        <v>2.89</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="K4" s="1">
-        <v>3.53</v>
+        <v>3.06</v>
       </c>
       <c r="L4" s="1">
-        <v>8.7100000000000009</v>
+        <v>9.33</v>
       </c>
       <c r="M4" s="1">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="N4" s="1">
-        <v>9.33</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="O4" s="1">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P4" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="R4" s="1">
         <v>6.83</v>
       </c>
       <c r="U4">
@@ -6431,45 +4733,39 @@
         <v>2.34</v>
       </c>
       <c r="E5" s="1">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="F5" s="1">
-        <v>0.73</v>
+        <v>1.45</v>
       </c>
       <c r="G5" s="1">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="H5" s="1">
-        <v>1.45</v>
+        <v>3.26</v>
       </c>
       <c r="I5" s="1">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="J5" s="1">
-        <v>3.26</v>
+        <v>8.66</v>
       </c>
       <c r="K5" s="1">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="L5" s="1">
-        <v>8.66</v>
+        <v>9.34</v>
       </c>
       <c r="M5" s="1">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="N5" s="1">
-        <v>9.34</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="O5" s="1">
-        <v>3.3</v>
+        <v>3.86</v>
       </c>
       <c r="P5" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3.86</v>
-      </c>
-      <c r="R5" s="1">
         <v>7</v>
       </c>
       <c r="U5">
@@ -6529,45 +4825,39 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="F6" s="1">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="G6" s="1">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="H6" s="1">
-        <v>2.25</v>
+        <v>4.45</v>
       </c>
       <c r="I6" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K6" s="1">
         <v>3.26</v>
       </c>
-      <c r="J6" s="1">
-        <v>4.45</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.17</v>
-      </c>
       <c r="L6" s="1">
-        <v>8.9600000000000009</v>
+        <v>9.36</v>
       </c>
       <c r="M6" s="1">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="N6" s="1">
-        <v>9.36</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="O6" s="1">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="P6" s="1">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3.96</v>
-      </c>
-      <c r="R6" s="1">
         <v>7.91</v>
       </c>
       <c r="U6">
@@ -6621,45 +4911,39 @@
         <v>1.85</v>
       </c>
       <c r="E7" s="1">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="F7" s="1">
-        <v>2.89</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G7" s="1">
-        <v>3.25</v>
+        <v>3.47</v>
       </c>
       <c r="H7" s="1">
-        <v>2.4500000000000002</v>
+        <v>6.14</v>
       </c>
       <c r="I7" s="1">
-        <v>3.47</v>
+        <v>3.04</v>
       </c>
       <c r="J7" s="1">
-        <v>6.14</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="K7" s="1">
-        <v>3.04</v>
+        <v>3.51</v>
       </c>
       <c r="L7" s="1">
-        <v>9.0299999999999994</v>
+        <v>9.39</v>
       </c>
       <c r="M7" s="1">
-        <v>3.51</v>
+        <v>3.71</v>
       </c>
       <c r="N7" s="1">
-        <v>9.39</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="O7" s="1">
-        <v>3.71</v>
+        <v>4.08</v>
       </c>
       <c r="P7" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="R7" s="1">
         <v>8.18</v>
       </c>
       <c r="U7">
@@ -6713,40 +4997,40 @@
         <v>1.68</v>
       </c>
       <c r="E8" s="1">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="F8" s="1">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="G8" s="1">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="H8" s="1">
-        <v>3.12</v>
+        <v>5.81</v>
       </c>
       <c r="I8" s="1">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="J8" s="1">
-        <v>5.81</v>
+        <v>9.1</v>
       </c>
       <c r="K8" s="1">
-        <v>2.95</v>
+        <v>3.68</v>
       </c>
       <c r="L8" s="1">
-        <v>9.1</v>
+        <v>9.44</v>
       </c>
       <c r="M8" s="1">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="N8" s="1">
-        <v>9.44</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="P8" s="1">
         <v>9.8800000000000008</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3.55</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3.42</v>
       </c>
       <c r="U8">
         <v>1.81</v>
@@ -6798,29 +5082,35 @@
       <c r="D9" s="1">
         <v>0.91</v>
       </c>
+      <c r="E9" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.64</v>
+      </c>
       <c r="G9" s="1">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H9" s="1">
-        <v>3.64</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="J9" s="1">
         <v>6.97</v>
       </c>
+      <c r="K9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9.44</v>
+      </c>
       <c r="M9" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>9.44</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4</v>
-      </c>
-      <c r="P9" s="1">
         <v>9.8800000000000008</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="P9" s="5">
+        <v>4.1900000000000004</v>
       </c>
       <c r="U9">
         <v>1.76</v>
@@ -6872,22 +5162,22 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="E10" s="1">
         <v>3.49</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>3.12</v>
       </c>
+      <c r="K10" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.44</v>
+      </c>
       <c r="M10" s="1">
-        <v>4.03</v>
+        <v>4.21</v>
       </c>
       <c r="N10" s="1">
-        <v>9.44</v>
-      </c>
-      <c r="O10" s="1">
-        <v>4.21</v>
-      </c>
-      <c r="P10" s="1">
         <v>9.8800000000000008</v>
       </c>
       <c r="U10">
@@ -6940,11 +5230,11 @@
       <c r="D11" s="1">
         <v>1.65</v>
       </c>
-      <c r="G11" s="1">
-        <v>3.55</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.42</v>
+      <c r="E11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.84</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -6990,11 +5280,11 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="G12" s="1">
-        <v>3.59</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4.1900000000000004</v>
+      <c r="E12" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.48</v>
       </c>
       <c r="U12">
         <v>1.62</v>
@@ -7040,11 +5330,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="G13" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2.84</v>
+      <c r="E13" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
       </c>
       <c r="U13">
         <v>1.57</v>
@@ -7090,6 +5380,12 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.73</v>
+      </c>
       <c r="U14">
         <v>1.52</v>
       </c>
@@ -7134,8 +5430,11 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
+      <c r="E15" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.48</v>
       </c>
       <c r="U15">
         <v>1.47</v>
@@ -7181,32 +5480,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>7</v>
+      <c r="E16" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.89</v>
       </c>
       <c r="U16">
         <v>1.42</v>
@@ -7252,59 +5530,11 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>27</v>
+      <c r="E17" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.36</v>
       </c>
       <c r="U17">
         <v>1.37</v>
@@ -7350,77 +5580,11 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f>$B$47-A3</f>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="B18" s="1">
-        <f>$B$46-B3</f>
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <f>$B$47-C3</f>
-        <v>1.27</v>
-      </c>
-      <c r="D18" s="1">
-        <f>$B$46-D3</f>
-        <v>7.93</v>
-      </c>
       <c r="E18" s="1">
-        <f>$B$47-E3</f>
-        <v>1.52</v>
+        <v>3.27</v>
       </c>
       <c r="F18" s="1">
-        <f>$B$46-F3</f>
-        <v>7.52</v>
-      </c>
-      <c r="G18" s="1">
-        <f>$B$47-G3</f>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="H18" s="1">
-        <f>$B$46-H3</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="1">
-        <f>$B$47-I3</f>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="J18" s="1">
-        <f>$B$46-J3</f>
-        <v>10</v>
-      </c>
-      <c r="K18" s="1">
-        <f>$B$47-K3</f>
-        <v>1.46</v>
-      </c>
-      <c r="L18" s="1">
-        <f>$B$46-L3</f>
-        <v>1.1400000000000006</v>
-      </c>
-      <c r="M18" s="1">
-        <f>$B$47-M3</f>
-        <v>1.75</v>
-      </c>
-      <c r="N18" s="1">
-        <f>$B$46-N3</f>
-        <v>0.74000000000000021</v>
-      </c>
-      <c r="O18" s="1">
-        <f>$B$47-O3</f>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="P18" s="1">
-        <f>$B$46-P3</f>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>$B$47-Q3</f>
-        <v>1.0500000000000003</v>
-      </c>
-      <c r="R18" s="1">
-        <f>$B$46-R3</f>
-        <v>4.5999999999999996</v>
+        <v>2.89</v>
       </c>
       <c r="W18">
         <v>1.47</v>
@@ -7460,77 +5624,11 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" ref="A19:A22" si="0">$B$47-A4</f>
-        <v>1.27</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" ref="B19:B21" si="1">$B$46-B4</f>
-        <v>9.15</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:C26" si="2">$B$47-C4</f>
-        <v>1.2400000000000002</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:D26" si="3">$B$46-D4</f>
-        <v>7.76</v>
-      </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E23" si="4">$B$47-E4</f>
-        <v>1.6300000000000003</v>
+        <v>3.34</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F24" si="5">$B$46-F4</f>
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19:G28" si="6">$B$47-G4</f>
-        <v>1.58</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:H29" si="7">$B$46-H4</f>
-        <v>8.98</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ref="I19:I25" si="8">$B$47-I4</f>
-        <v>1.6100000000000003</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" ref="J19:J24" si="9">$B$46-J4</f>
-        <v>7.1099999999999994</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" ref="K19:K25" si="10">$B$47-K4</f>
-        <v>1.1700000000000004</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" ref="L19:L23" si="11">$B$46-L4</f>
-        <v>1.2899999999999991</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" ref="M19:M25" si="12">$B$47-M4</f>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" ref="N19:N25" si="13">$B$46-N4</f>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" ref="O19:O25" si="14">$B$47-O4</f>
-        <v>1.6</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" ref="P19:P25" si="15">$B$46-P4</f>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" ref="Q19:Q22" si="16">$B$47-Q4</f>
-        <v>0.95000000000000018</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" ref="R19:R22" si="17">$B$46-R4</f>
-        <v>3.17</v>
+        <v>3.36</v>
       </c>
       <c r="W19">
         <v>1.42</v>
@@ -7570,78 +5668,6 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2400000000000002</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>1.31</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>7.66</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="4"/>
-        <v>1.58</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="5"/>
-        <v>9.27</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5500000000000003</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="7"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="9"/>
-        <v>6.74</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="10"/>
-        <v>1.35</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="11"/>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="12"/>
-        <v>1.52</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="13"/>
-        <v>0.66000000000000014</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="14"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="16"/>
-        <v>0.8400000000000003</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
       <c r="W20">
         <v>1.37</v>
       </c>
@@ -7674,78 +5700,6 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2200000000000002</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3800000000000003</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4700000000000002</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="5"/>
-        <v>7.52</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>7.75</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4400000000000004</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="9"/>
-        <v>5.55</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="11"/>
-        <v>1.0399999999999991</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4400000000000004</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="13"/>
-        <v>0.64000000000000057</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="14"/>
-        <v>1.1900000000000004</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="15"/>
-        <v>0.13000000000000078</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="16"/>
-        <v>0.74000000000000021</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="17"/>
-        <v>2.09</v>
-      </c>
       <c r="AA21">
         <v>1.27</v>
       </c>
@@ -7760,70 +5714,8 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>8.15</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="5"/>
-        <v>7.1099999999999994</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.55</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>1.23</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="9"/>
-        <v>3.8600000000000003</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="10"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="11"/>
-        <v>0.97000000000000064</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1900000000000004</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="13"/>
-        <v>0.60999999999999943</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="14"/>
-        <v>0.99000000000000021</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="16"/>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="17"/>
-        <v>1.8200000000000003</v>
+      <c r="A22" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="AA22">
         <v>1.23</v>
@@ -7833,63 +5725,17 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1">
-        <f t="shared" si="2"/>
-        <v>1.48</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>8.32</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3600000000000003</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="5"/>
-        <v>6.6400000000000006</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="7"/>
-        <v>6.88</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.33</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="9"/>
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="10"/>
-        <v>1.75</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90000000000000036</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="12"/>
-        <v>1.02</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="13"/>
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="14"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999922</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="AA23">
         <v>1.18</v>
       </c>
@@ -7898,49 +5744,25 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5500000000000003</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>9.09</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <f t="shared" si="6"/>
-        <v>1.35</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="7"/>
-        <v>6.3599999999999994</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0300000000000002</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="1">
-        <f t="shared" si="12"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="13"/>
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="14"/>
-        <v>0.70000000000000018</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999922</v>
-      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
       <c r="AA24">
         <v>1.1299999999999999</v>
       </c>
@@ -7949,41 +5771,23 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5700000000000003</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="6"/>
-        <v>1.21</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="7"/>
-        <v>6.88</v>
-      </c>
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="M25" s="1">
-        <f t="shared" si="12"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="13"/>
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="14"/>
-        <v>0.49000000000000021</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999922</v>
-      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
       <c r="AA25">
         <v>1.08</v>
       </c>
@@ -7992,23 +5796,23 @@
       </c>
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5100000000000002</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>8.35</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1500000000000004</v>
-      </c>
-      <c r="H26" s="1">
-        <f>$B$46-H11</f>
-        <v>6.58</v>
-      </c>
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
       <c r="AA26">
         <v>1.03</v>
       </c>
@@ -8017,15 +5821,20 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="G27" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1100000000000003</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="7"/>
-        <v>5.81</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
       <c r="AA27">
         <v>0.98</v>
       </c>
@@ -8034,15 +5843,20 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="G28" s="1">
-        <f t="shared" si="6"/>
-        <v>1.3000000000000003</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="7"/>
-        <v>7.16</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
       <c r="AA28">
         <v>0.88</v>
       </c>
@@ -8050,8 +5864,27 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="1"/>
+    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
       <c r="AA29">
         <v>0.84</v>
       </c>
@@ -8059,13 +5892,25 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" t="s">
-        <v>50</v>
-      </c>
+    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="AA30">
         <v>0.79</v>
       </c>
@@ -8074,6 +5919,17 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="AA31">
         <v>0.74</v>
       </c>
@@ -8081,129 +5937,121 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50">
+    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <f>1/2250</f>
         <v>4.4444444444444447E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <f>1/-226</f>
         <v>-4.4247787610619468E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>8.68</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <f>10/10^9</f>
         <v>1E-8</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <f>100/10^9</f>
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>B37</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f>B37/B36</f>
+        <v>10</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B55">
-        <f>B54</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B41">
+        <f>B33/B34</f>
+        <v>-0.10044444444444445</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B57">
-        <f>B54/B53</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58">
-        <f>B50/B51</f>
-        <v>-0.10044444444444445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59">
-        <f>100*1000*B55/3300</f>
+      <c r="B42">
+        <f>100*1000*B38/3300</f>
         <v>3.0303030303030305E-6</v>
       </c>
     </row>
@@ -8228,40 +6076,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8299,11 +6147,11 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <f>'Состояние системы'!$B$47 - A2</f>
+        <f>'Состояние системы'!$B$30 - A2</f>
         <v>1.2800000000000002</v>
       </c>
       <c r="L2">
-        <f>'Состояние системы'!$B$46-B2</f>
+        <f>'Состояние системы'!$B$29-B2</f>
         <v>7.82</v>
       </c>
     </row>
@@ -8342,11 +6190,11 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <f>'Состояние системы'!$B$47 - A3</f>
+        <f>'Состояние системы'!$B$30 - A3</f>
         <v>1.3600000000000003</v>
       </c>
       <c r="L3">
-        <f>'Состояние системы'!$B$46-B3</f>
+        <f>'Состояние системы'!$B$29-B3</f>
         <v>7.8100000000000005</v>
       </c>
     </row>
@@ -8385,11 +6233,11 @@
         <v>6.5</v>
       </c>
       <c r="K4">
-        <f>'Состояние системы'!$B$47 - A4</f>
+        <f>'Состояние системы'!$B$30 - A4</f>
         <v>1.4700000000000002</v>
       </c>
       <c r="L4">
-        <f>'Состояние системы'!$B$46-B4</f>
+        <f>'Состояние системы'!$B$29-B4</f>
         <v>8.32</v>
       </c>
     </row>
@@ -8428,11 +6276,11 @@
         <v>5.5</v>
       </c>
       <c r="K5">
-        <f>'Состояние системы'!$B$47 - A5</f>
+        <f>'Состояние системы'!$B$30 - A5</f>
         <v>1.5100000000000002</v>
       </c>
       <c r="L5">
-        <f>'Состояние системы'!$B$46-B5</f>
+        <f>'Состояние системы'!$B$29-B5</f>
         <v>10</v>
       </c>
     </row>
@@ -8471,11 +6319,11 @@
         <v>6.5</v>
       </c>
       <c r="K6">
-        <f>'Состояние системы'!$B$47 - A6</f>
+        <f>'Состояние системы'!$B$30 - A6</f>
         <v>1.5700000000000003</v>
       </c>
       <c r="L6">
-        <f>'Состояние системы'!$B$46-B6</f>
+        <f>'Состояние системы'!$B$29-B6</f>
         <v>10</v>
       </c>
     </row>
@@ -8514,11 +6362,11 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <f>'Состояние системы'!$B$47 - A7</f>
+        <f>'Состояние системы'!$B$30 - A7</f>
         <v>1.35</v>
       </c>
       <c r="L7">
-        <f>'Состояние системы'!$B$46-B7</f>
+        <f>'Состояние системы'!$B$29-B7</f>
         <v>9.14</v>
       </c>
     </row>
@@ -8557,11 +6405,11 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <f>'Состояние системы'!$B$47 - A8</f>
+        <f>'Состояние системы'!$B$30 - A8</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="L8">
-        <f>'Состояние системы'!$B$46-B8</f>
+        <f>'Состояние системы'!$B$29-B8</f>
         <v>8.14</v>
       </c>
     </row>
@@ -8600,11 +6448,11 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <f>'Состояние системы'!$B$47 - A9</f>
+        <f>'Состояние системы'!$B$30 - A9</f>
         <v>1.37</v>
       </c>
       <c r="L9">
-        <f>'Состояние системы'!$B$46-B9</f>
+        <f>'Состояние системы'!$B$29-B9</f>
         <v>10</v>
       </c>
     </row>
@@ -8643,11 +6491,11 @@
         <v>5.8</v>
       </c>
       <c r="K10">
-        <f>'Состояние системы'!$B$47 - A10</f>
+        <f>'Состояние системы'!$B$30 - A10</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="L10">
-        <f>'Состояние системы'!$B$46-B10</f>
+        <f>'Состояние системы'!$B$29-B10</f>
         <v>8.69</v>
       </c>
     </row>
@@ -8686,11 +6534,11 @@
         <v>5.8</v>
       </c>
       <c r="K11">
-        <f>'Состояние системы'!$B$47 - A11</f>
+        <f>'Состояние системы'!$B$30 - A11</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="L11">
-        <f>'Состояние системы'!$B$46-B11</f>
+        <f>'Состояние системы'!$B$29-B11</f>
         <v>9.44</v>
       </c>
     </row>
@@ -8729,11 +6577,11 @@
         <v>4.8</v>
       </c>
       <c r="K12">
-        <f>'Состояние системы'!$B$47 - A12</f>
+        <f>'Состояние системы'!$B$30 - A12</f>
         <v>1.4400000000000004</v>
       </c>
       <c r="L12">
-        <f>'Состояние системы'!$B$46-B12</f>
+        <f>'Состояние системы'!$B$29-B12</f>
         <v>10</v>
       </c>
     </row>
@@ -8772,11 +6620,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K13">
-        <f>'Состояние системы'!$B$47 - A13</f>
+        <f>'Состояние системы'!$B$30 - A13</f>
         <v>1.4400000000000004</v>
       </c>
       <c r="L13">
-        <f>'Состояние системы'!$B$46-B13</f>
+        <f>'Состояние системы'!$B$29-B13</f>
         <v>9.16</v>
       </c>
     </row>
@@ -8815,11 +6663,11 @@
         <v>4</v>
       </c>
       <c r="K14">
-        <f>'Состояние системы'!$B$47 - A14</f>
+        <f>'Состояние системы'!$B$30 - A14</f>
         <v>1.31</v>
       </c>
       <c r="L14">
-        <f>'Состояние системы'!$B$46-B14</f>
+        <f>'Состояние системы'!$B$29-B14</f>
         <v>10</v>
       </c>
     </row>
@@ -8858,11 +6706,11 @@
         <v>3.8</v>
       </c>
       <c r="K15">
-        <f>'Состояние системы'!$B$47 - A15</f>
+        <f>'Состояние системы'!$B$30 - A15</f>
         <v>1.31</v>
       </c>
       <c r="L15">
-        <f>'Состояние системы'!$B$46-B15</f>
+        <f>'Состояние системы'!$B$29-B15</f>
         <v>7.93</v>
       </c>
     </row>
@@ -8901,11 +6749,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K16">
-        <f>'Состояние системы'!$B$47 - A16</f>
+        <f>'Состояние системы'!$B$30 - A16</f>
         <v>1.1500000000000004</v>
       </c>
       <c r="L16">
-        <f>'Состояние системы'!$B$46-B16</f>
+        <f>'Состояние системы'!$B$29-B16</f>
         <v>8.27</v>
       </c>
     </row>
@@ -8930,37 +6778,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8991,11 +6839,11 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <f>'Состояние системы'!$B$46 - B2</f>
+        <f>'Состояние системы'!$B$29 - B2</f>
         <v>10</v>
       </c>
       <c r="J2">
-        <f>'Состояние системы'!$B$47-A2</f>
+        <f>'Состояние системы'!$B$30-A2</f>
         <v>1.5500000000000003</v>
       </c>
       <c r="K2">
@@ -9029,7 +6877,7 @@
         <v>2.5</v>
       </c>
       <c r="I3">
-        <f>'Состояние системы'!$B$46 - B3</f>
+        <f>'Состояние системы'!$B$29 - B3</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="K3">
@@ -9063,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>'Состояние системы'!$B$46 - B4</f>
+        <f>'Состояние системы'!$B$29 - B4</f>
         <v>7.9</v>
       </c>
       <c r="K4">
@@ -9097,7 +6945,7 @@
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f>'Состояние системы'!$B$46 - B5</f>
+        <f>'Состояние системы'!$B$29 - B5</f>
         <v>7.15</v>
       </c>
       <c r="K5">
@@ -9131,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>'Состояние системы'!$B$46 - B6</f>
+        <f>'Состояние системы'!$B$29 - B6</f>
         <v>7.1400000000000006</v>
       </c>
       <c r="K6">
@@ -9165,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>'Состояние системы'!$B$46 - B7</f>
+        <f>'Состояние системы'!$B$29 - B7</f>
         <v>1.08</v>
       </c>
       <c r="K7">
@@ -9199,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>'Состояние системы'!$B$46 - B8</f>
+        <f>'Состояние системы'!$B$29 - B8</f>
         <v>1.0700000000000003</v>
       </c>
       <c r="K8">
@@ -9233,7 +7081,7 @@
         <v>0.5</v>
       </c>
       <c r="I9">
-        <f>'Состояние системы'!$B$46 - B9</f>
+        <f>'Состояние системы'!$B$29 - B9</f>
         <v>0.86999999999999922</v>
       </c>
       <c r="K9">
@@ -9267,7 +7115,7 @@
         <v>0.5</v>
       </c>
       <c r="I10">
-        <f>'Состояние системы'!$B$46 - B10</f>
+        <f>'Состояние системы'!$B$29 - B10</f>
         <v>0.83000000000000007</v>
       </c>
       <c r="K10">
@@ -9301,7 +7149,7 @@
         <v>0.75</v>
       </c>
       <c r="I11">
-        <f>'Состояние системы'!$B$46 - B11</f>
+        <f>'Состояние системы'!$B$29 - B11</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="K11">
@@ -9335,7 +7183,7 @@
         <v>0.5</v>
       </c>
       <c r="I12">
-        <f>'Состояние системы'!$B$46 - B12</f>
+        <f>'Состояние системы'!$B$29 - B12</f>
         <v>0.69999999999999929</v>
       </c>
       <c r="K12">
@@ -9369,7 +7217,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <f>'Состояние системы'!$B$46 - B13</f>
+        <f>'Состояние системы'!$B$29 - B13</f>
         <v>0.67999999999999972</v>
       </c>
       <c r="K13">
@@ -9403,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f>'Состояние системы'!$B$46 - B14</f>
+        <f>'Состояние системы'!$B$29 - B14</f>
         <v>0.36999999999999922</v>
       </c>
       <c r="K14">
@@ -9437,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f>'Состояние системы'!$B$46 - B15</f>
+        <f>'Состояние системы'!$B$29 - B15</f>
         <v>0.22000000000000064</v>
       </c>
       <c r="K15">
@@ -9471,7 +7319,7 @@
         <v>0.4</v>
       </c>
       <c r="I16">
-        <f>'Состояние системы'!$B$46 - B16</f>
+        <f>'Состояние системы'!$B$29 - B16</f>
         <v>0.16999999999999993</v>
       </c>
       <c r="K16">
@@ -9505,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>'Состояние системы'!$B$46 - B17</f>
+        <f>'Состояние системы'!$B$29 - B17</f>
         <v>0.14000000000000057</v>
       </c>
       <c r="K17">
@@ -9534,13 +7382,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
